--- a/module02-black-box-technique/03_44_NguyenVanMinh_Module02.xlsx
+++ b/module02-black-box-technique/03_44_NguyenVanMinh_Module02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University\2025_HK1\DamBaoChatLuongVaKiemThuPhanMem\github\module02-black-box-technique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E47635-2869-4E30-B3F4-5A45DAD23E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35EF7FD-407C-4CDA-AFC1-DD2FA337FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 01" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="295">
   <si>
     <t>Condition</t>
   </si>
@@ -407,12 +407,6 @@
   </si>
   <si>
     <t>&lt; 0</t>
-  </si>
-  <si>
-    <t>Throw Exception: "Số nhập không được &gt; 1000"</t>
-  </si>
-  <si>
-    <t>Throw Exception: "Số nhập không được &lt; 0"</t>
   </si>
   <si>
     <t>Giá vé</t>
@@ -1004,6 +998,9 @@
   </si>
   <si>
     <t>Throw an Exception</t>
+  </si>
+  <si>
+    <t>Exception</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1929,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -2285,7 +2282,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2436,151 +2432,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2591,9 +2442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2602,9 +2450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2616,42 +2461,24 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2662,109 +2489,271 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2777,7 +2766,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{C8C1F046-73AF-44C2-89C4-67C697F57E90}"/>
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{C8C1F046-73AF-44C2-89C4-67C697F57E90}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -3865,23 +3854,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.4" thickBot="1">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="I1" s="191" t="s">
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="I1" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1">
       <c r="B2" s="23" t="s">
@@ -3899,23 +3888,23 @@
       <c r="F2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="241" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="9"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="243" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="184" t="s">
+      <c r="K2" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="193" t="s">
+      <c r="L2" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="184" t="s">
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3923,7 +3912,7 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="231" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="54" t="s">
@@ -3934,10 +3923,10 @@
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="55"/>
-      <c r="H3" s="196"/>
+      <c r="H3" s="242"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="185"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="238"/>
       <c r="L3" s="52" t="s">
         <v>3</v>
       </c>
@@ -3950,29 +3939,29 @@
       <c r="O3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="185"/>
+      <c r="P3" s="238"/>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1">
-      <c r="B4" s="183"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="56" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="57"/>
       <c r="H4" s="43">
         <v>1</v>
       </c>
-      <c r="J4" s="188" t="s">
-        <v>126</v>
+      <c r="J4" s="245" t="s">
+        <v>124</v>
       </c>
       <c r="K4" s="44">
         <v>1</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>7</v>
@@ -3987,14 +3976,14 @@
         <v>5</v>
       </c>
       <c r="R4" s="110" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="231" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="54" t="s">
@@ -4008,7 +3997,7 @@
       <c r="H5" s="44">
         <v>2</v>
       </c>
-      <c r="J5" s="188"/>
+      <c r="J5" s="245"/>
       <c r="K5" s="44">
         <v>2</v>
       </c>
@@ -4028,23 +4017,23 @@
         <v>8</v>
       </c>
       <c r="R5" s="110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1">
-      <c r="B6" s="183"/>
+      <c r="B6" s="233"/>
       <c r="C6" s="56" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="57"/>
       <c r="H6" s="44">
         <v>3</v>
       </c>
-      <c r="J6" s="188"/>
+      <c r="J6" s="245"/>
       <c r="K6" s="44">
         <v>3</v>
       </c>
@@ -4064,14 +4053,14 @@
         <v>5.5</v>
       </c>
       <c r="R6" s="110" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="231" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="54" t="s">
@@ -4089,14 +4078,14 @@
       <c r="H7" s="44">
         <v>4</v>
       </c>
-      <c r="J7" s="189" t="s">
-        <v>127</v>
+      <c r="J7" s="239" t="s">
+        <v>125</v>
       </c>
       <c r="K7" s="44">
         <v>1</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>7</v>
@@ -4112,7 +4101,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="182"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="59" t="s">
         <v>12</v>
       </c>
@@ -4128,12 +4117,12 @@
       <c r="H8" s="44">
         <v>5</v>
       </c>
-      <c r="J8" s="189"/>
+      <c r="J8" s="239"/>
       <c r="K8" s="44">
         <v>2</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>8</v>
@@ -4149,9 +4138,9 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="182"/>
+      <c r="B9" s="232"/>
       <c r="D9" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9" s="60">
         <v>19.010000000000002</v>
@@ -4160,12 +4149,12 @@
       <c r="H9" s="44">
         <v>6</v>
       </c>
-      <c r="J9" s="189"/>
+      <c r="J9" s="239"/>
       <c r="K9" s="44">
         <v>3</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>8</v>
@@ -4181,10 +4170,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1">
-      <c r="B10" s="183"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E10" s="60" t="s">
         <v>54</v>
@@ -4193,7 +4182,7 @@
       <c r="H10" s="44">
         <v>7</v>
       </c>
-      <c r="J10" s="189"/>
+      <c r="J10" s="239"/>
       <c r="K10" s="44">
         <v>4</v>
       </c>
@@ -4217,7 +4206,7 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="231" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="61" t="s">
@@ -4235,7 +4224,7 @@
       <c r="H11" s="44">
         <v>8</v>
       </c>
-      <c r="J11" s="189"/>
+      <c r="J11" s="239"/>
       <c r="K11" s="44">
         <v>5</v>
       </c>
@@ -4256,7 +4245,7 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="182"/>
+      <c r="B12" s="232"/>
       <c r="C12" s="63" t="s">
         <v>14</v>
       </c>
@@ -4272,7 +4261,7 @@
       <c r="H12" s="44">
         <v>9</v>
       </c>
-      <c r="J12" s="189"/>
+      <c r="J12" s="239"/>
       <c r="K12" s="44">
         <v>6</v>
       </c>
@@ -4293,12 +4282,12 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="182"/>
+      <c r="B13" s="232"/>
       <c r="C13" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="64">
         <v>16.010000000000002</v>
@@ -4307,7 +4296,7 @@
       <c r="H13" s="44">
         <v>10</v>
       </c>
-      <c r="J13" s="189"/>
+      <c r="J13" s="239"/>
       <c r="K13" s="44">
         <v>7</v>
       </c>
@@ -4328,10 +4317,10 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="182"/>
+      <c r="B14" s="232"/>
       <c r="C14" s="63"/>
       <c r="D14" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="64" t="s">
         <v>57</v>
@@ -4340,12 +4329,12 @@
       <c r="H14" s="44">
         <v>11</v>
       </c>
-      <c r="J14" s="189"/>
+      <c r="J14" s="239"/>
       <c r="K14" s="44">
         <v>8</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>7</v>
@@ -4361,7 +4350,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="182"/>
+      <c r="B15" s="232"/>
       <c r="C15" s="63"/>
       <c r="D15" s="59"/>
       <c r="E15" s="64">
@@ -4371,12 +4360,12 @@
       <c r="H15" s="44">
         <v>12</v>
       </c>
-      <c r="J15" s="189"/>
+      <c r="J15" s="239"/>
       <c r="K15" s="44">
         <v>9</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>7</v>
@@ -4392,7 +4381,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" thickBot="1">
-      <c r="B16" s="183"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="65"/>
       <c r="D16" s="56"/>
       <c r="E16" s="66" t="s">
@@ -4402,12 +4391,12 @@
       <c r="H16" s="44">
         <v>13</v>
       </c>
-      <c r="J16" s="189"/>
+      <c r="J16" s="239"/>
       <c r="K16" s="44">
         <v>10</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>8</v>
@@ -4424,10 +4413,10 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="181" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="B17" s="231" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="70">
         <v>5</v>
@@ -4438,12 +4427,12 @@
       <c r="H17" s="44">
         <v>14</v>
       </c>
-      <c r="J17" s="189"/>
+      <c r="J17" s="239"/>
       <c r="K17" s="44">
         <v>11</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>8</v>
@@ -4459,7 +4448,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="B18" s="182"/>
+      <c r="B18" s="232"/>
       <c r="C18" s="71">
         <v>6</v>
       </c>
@@ -4469,12 +4458,12 @@
       <c r="H18" s="44">
         <v>15</v>
       </c>
-      <c r="J18" s="189"/>
+      <c r="J18" s="239"/>
       <c r="K18" s="44">
         <v>12</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>7</v>
@@ -4490,7 +4479,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="B19" s="182"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="71">
         <v>2.5</v>
       </c>
@@ -4500,12 +4489,12 @@
       <c r="H19" s="44">
         <v>16</v>
       </c>
-      <c r="J19" s="189"/>
+      <c r="J19" s="239"/>
       <c r="K19" s="44">
         <v>13</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>7</v>
@@ -4521,7 +4510,7 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="B20" s="182"/>
+      <c r="B20" s="232"/>
       <c r="C20" s="71">
         <v>3</v>
       </c>
@@ -4531,12 +4520,12 @@
       <c r="H20" s="44">
         <v>17</v>
       </c>
-      <c r="J20" s="189"/>
+      <c r="J20" s="239"/>
       <c r="K20" s="44">
         <v>14</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>8</v>
@@ -4552,7 +4541,7 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="B21" s="182"/>
+      <c r="B21" s="232"/>
       <c r="C21" s="71">
         <v>7.5</v>
       </c>
@@ -4562,7 +4551,7 @@
       <c r="H21" s="44">
         <v>18</v>
       </c>
-      <c r="J21" s="189"/>
+      <c r="J21" s="239"/>
       <c r="K21" s="44">
         <v>15</v>
       </c>
@@ -4583,7 +4572,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" s="182"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="71">
         <v>9</v>
       </c>
@@ -4593,7 +4582,7 @@
       <c r="H22" s="44">
         <v>19</v>
       </c>
-      <c r="J22" s="189"/>
+      <c r="J22" s="239"/>
       <c r="K22" s="44">
         <v>16</v>
       </c>
@@ -4614,7 +4603,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1">
-      <c r="B23" s="182"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="71">
         <v>3.5</v>
       </c>
@@ -4625,7 +4614,7 @@
         <v>20</v>
       </c>
       <c r="I23" s="36"/>
-      <c r="J23" s="190"/>
+      <c r="J23" s="240"/>
       <c r="K23" s="47">
         <v>17</v>
       </c>
@@ -4646,7 +4635,7 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="B24" s="182"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="71">
         <v>4</v>
       </c>
@@ -4656,7 +4645,7 @@
       <c r="H24" s="44">
         <v>21</v>
       </c>
-      <c r="J24" s="189" t="s">
+      <c r="J24" s="239" t="s">
         <v>37</v>
       </c>
       <c r="K24" s="13">
@@ -4679,7 +4668,7 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="B25" s="182"/>
+      <c r="B25" s="232"/>
       <c r="C25" s="71">
         <v>10</v>
       </c>
@@ -4689,7 +4678,7 @@
       <c r="H25" s="44">
         <v>22</v>
       </c>
-      <c r="J25" s="189"/>
+      <c r="J25" s="239"/>
       <c r="K25" s="17">
         <v>2</v>
       </c>
@@ -4704,11 +4693,11 @@
         <v>33</v>
       </c>
       <c r="P25" s="95" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="B26" s="182"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="71">
         <v>12</v>
       </c>
@@ -4718,7 +4707,7 @@
       <c r="H26" s="44">
         <v>23</v>
       </c>
-      <c r="J26" s="189"/>
+      <c r="J26" s="239"/>
       <c r="K26" s="17">
         <v>3</v>
       </c>
@@ -4739,7 +4728,7 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="B27" s="182"/>
+      <c r="B27" s="232"/>
       <c r="C27" s="71">
         <v>5</v>
       </c>
@@ -4749,7 +4738,7 @@
       <c r="H27" s="44">
         <v>24</v>
       </c>
-      <c r="J27" s="189"/>
+      <c r="J27" s="239"/>
       <c r="K27" s="17">
         <v>4</v>
       </c>
@@ -4764,11 +4753,11 @@
         <v>33</v>
       </c>
       <c r="P27" s="95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="B28" s="182"/>
+      <c r="B28" s="232"/>
       <c r="C28" s="71">
         <v>6</v>
       </c>
@@ -4778,7 +4767,7 @@
       <c r="H28" s="44">
         <v>25</v>
       </c>
-      <c r="J28" s="189"/>
+      <c r="J28" s="239"/>
       <c r="K28" s="17">
         <v>5</v>
       </c>
@@ -4799,7 +4788,7 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="B29" s="182"/>
+      <c r="B29" s="232"/>
       <c r="C29" s="71">
         <v>15</v>
       </c>
@@ -4809,7 +4798,7 @@
       <c r="H29" s="44">
         <v>26</v>
       </c>
-      <c r="J29" s="189"/>
+      <c r="J29" s="239"/>
       <c r="K29" s="17">
         <v>6</v>
       </c>
@@ -4820,7 +4809,7 @@
         <v>7</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O29" s="99" t="s">
         <v>33</v>
@@ -4830,7 +4819,7 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="B30" s="182"/>
+      <c r="B30" s="232"/>
       <c r="C30" s="71">
         <v>18</v>
       </c>
@@ -4840,7 +4829,7 @@
       <c r="H30" s="44">
         <v>27</v>
       </c>
-      <c r="J30" s="189"/>
+      <c r="J30" s="239"/>
       <c r="K30" s="17">
         <v>7</v>
       </c>
@@ -4861,7 +4850,7 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="B31" s="182"/>
+      <c r="B31" s="232"/>
       <c r="C31" s="71">
         <v>7</v>
       </c>
@@ -4871,7 +4860,7 @@
       <c r="H31" s="44">
         <v>28</v>
       </c>
-      <c r="J31" s="189"/>
+      <c r="J31" s="239"/>
       <c r="K31" s="17">
         <v>8</v>
       </c>
@@ -4890,7 +4879,7 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="B32" s="182"/>
+      <c r="B32" s="232"/>
       <c r="C32" s="71">
         <v>8</v>
       </c>
@@ -4900,7 +4889,7 @@
       <c r="H32" s="44">
         <v>29</v>
       </c>
-      <c r="J32" s="189"/>
+      <c r="J32" s="239"/>
       <c r="K32" s="17">
         <v>9</v>
       </c>
@@ -4921,7 +4910,7 @@
       </c>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="182"/>
+      <c r="B33" s="232"/>
       <c r="C33" s="71">
         <v>8</v>
       </c>
@@ -4931,7 +4920,7 @@
       <c r="H33" s="44">
         <v>30</v>
       </c>
-      <c r="J33" s="189"/>
+      <c r="J33" s="239"/>
       <c r="K33" s="17">
         <v>10</v>
       </c>
@@ -4952,7 +4941,7 @@
       </c>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="182"/>
+      <c r="B34" s="232"/>
       <c r="C34" s="71">
         <v>4</v>
       </c>
@@ -4962,7 +4951,7 @@
       <c r="H34" s="44">
         <v>31</v>
       </c>
-      <c r="J34" s="189"/>
+      <c r="J34" s="239"/>
       <c r="K34" s="17">
         <v>11</v>
       </c>
@@ -4983,7 +4972,7 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="15" thickBot="1">
-      <c r="B35" s="182"/>
+      <c r="B35" s="232"/>
       <c r="C35" s="71">
         <v>12</v>
       </c>
@@ -4993,7 +4982,7 @@
       <c r="H35" s="44">
         <v>32</v>
       </c>
-      <c r="J35" s="190"/>
+      <c r="J35" s="240"/>
       <c r="K35" s="14">
         <v>12</v>
       </c>
@@ -5012,7 +5001,7 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="183"/>
+      <c r="B36" s="233"/>
       <c r="C36" s="72">
         <v>5.5</v>
       </c>
@@ -5022,7 +5011,7 @@
       <c r="H36" s="44">
         <v>33</v>
       </c>
-      <c r="J36" s="181" t="s">
+      <c r="J36" s="231" t="s">
         <v>52</v>
       </c>
       <c r="K36" s="67">
@@ -5049,7 +5038,7 @@
       <c r="H37" s="44">
         <v>34</v>
       </c>
-      <c r="J37" s="182"/>
+      <c r="J37" s="232"/>
       <c r="K37" s="68">
         <v>2</v>
       </c>
@@ -5074,7 +5063,7 @@
       <c r="H38" s="44">
         <v>35</v>
       </c>
-      <c r="J38" s="182"/>
+      <c r="J38" s="232"/>
       <c r="K38" s="68">
         <v>3</v>
       </c>
@@ -5098,7 +5087,7 @@
       <c r="H39" s="44">
         <v>36</v>
       </c>
-      <c r="J39" s="182"/>
+      <c r="J39" s="232"/>
       <c r="K39" s="68">
         <v>4</v>
       </c>
@@ -5122,7 +5111,7 @@
       <c r="H40" s="44">
         <v>37</v>
       </c>
-      <c r="J40" s="182"/>
+      <c r="J40" s="232"/>
       <c r="K40" s="68">
         <v>5</v>
       </c>
@@ -5146,7 +5135,7 @@
       <c r="H41" s="44">
         <v>38</v>
       </c>
-      <c r="J41" s="183"/>
+      <c r="J41" s="233"/>
       <c r="K41" s="69">
         <v>6</v>
       </c>
@@ -5170,7 +5159,7 @@
       <c r="H42" s="44">
         <v>39</v>
       </c>
-      <c r="J42" s="181" t="s">
+      <c r="J42" s="231" t="s">
         <v>61</v>
       </c>
       <c r="K42" s="67">
@@ -5196,7 +5185,7 @@
       <c r="H43" s="44">
         <v>40</v>
       </c>
-      <c r="J43" s="182"/>
+      <c r="J43" s="232"/>
       <c r="K43" s="68">
         <v>2</v>
       </c>
@@ -5207,20 +5196,20 @@
         <v>7</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O43" s="73" t="s">
         <v>35</v>
       </c>
       <c r="P43" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="H44" s="44">
         <v>41</v>
       </c>
-      <c r="J44" s="182"/>
+      <c r="J44" s="232"/>
       <c r="K44" s="68">
         <v>3</v>
       </c>
@@ -5244,7 +5233,7 @@
       <c r="H45" s="47">
         <v>42</v>
       </c>
-      <c r="J45" s="183"/>
+      <c r="J45" s="233"/>
       <c r="K45" s="69">
         <v>4</v>
       </c>
@@ -5276,6 +5265,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="B17:B36"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="J24:J35"/>
+    <mergeCell ref="J36:J41"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B5:B6"/>
@@ -5285,14 +5282,6 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="J7:J23"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="B17:B36"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="J24:J35"/>
-    <mergeCell ref="J36:J41"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5320,80 +5309,80 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:6">
-      <c r="B27" s="275"/>
+      <c r="B27" s="211"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="293" t="s">
+      <c r="C28" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="293" t="s">
+      <c r="D28" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="293" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="293" t="s">
-        <v>167</v>
+      <c r="E28" s="227" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="227" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="28.8">
-      <c r="B29" s="244" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="284" t="s">
+      <c r="B29" s="268" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="220" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="187"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="187"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="268"/>
+      <c r="C30" s="188" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="268"/>
+      <c r="C31" s="222" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="239"/>
-      <c r="E29" s="285"/>
-      <c r="F29" s="239"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="244"/>
-      <c r="C30" s="240" t="s">
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="268"/>
+      <c r="C32" s="188" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="244"/>
-      <c r="C31" s="286" t="s">
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="268"/>
+      <c r="C33" s="222" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="244"/>
-      <c r="C32" s="240" t="s">
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="268"/>
+      <c r="C34" s="188" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="244"/>
-      <c r="C33" s="286" t="s">
-        <v>273</v>
-      </c>
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="244"/>
-      <c r="C34" s="240" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="240"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="240"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="8"/>
@@ -5410,153 +5399,153 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="294" t="s">
+      <c r="B37" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="294" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="295" t="s">
+      <c r="C37" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="295"/>
-      <c r="F37" s="295"/>
-      <c r="G37" s="294" t="s">
+      <c r="E37" s="284"/>
+      <c r="F37" s="284"/>
+      <c r="G37" s="276" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="294"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="277" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" s="277" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" s="277" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" s="294"/>
+      <c r="B38" s="276"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="213" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="213" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="276"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="272" t="s">
+      <c r="B39" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="262">
+      <c r="C39" s="203">
         <v>1</v>
       </c>
-      <c r="D39" s="262" t="s">
+      <c r="D39" s="203" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="203">
+        <v>2</v>
+      </c>
+      <c r="F39" s="203">
+        <v>1</v>
+      </c>
+      <c r="G39" s="203" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="277"/>
+      <c r="C40" s="202">
+        <v>2</v>
+      </c>
+      <c r="D40" s="203" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="203">
+        <v>2</v>
+      </c>
+      <c r="F40" s="203">
+        <v>22</v>
+      </c>
+      <c r="G40" s="203" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="277"/>
+      <c r="C41" s="203">
+        <v>3</v>
+      </c>
+      <c r="D41" s="202" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" s="202">
+        <v>17</v>
+      </c>
+      <c r="F41" s="202">
+        <v>3</v>
+      </c>
+      <c r="G41" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="E39" s="262">
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="277"/>
+      <c r="C42" s="202">
+        <v>4</v>
+      </c>
+      <c r="D42" s="203" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="203">
         <v>2</v>
       </c>
-      <c r="F39" s="262">
+      <c r="F42" s="203">
+        <v>-5</v>
+      </c>
+      <c r="G42" s="203" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="277"/>
+      <c r="C43" s="203">
+        <v>5</v>
+      </c>
+      <c r="D43" s="202" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" s="202">
+        <v>-7</v>
+      </c>
+      <c r="F43" s="202">
+        <v>4</v>
+      </c>
+      <c r="G43" s="202" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="277"/>
+      <c r="C44" s="202">
+        <v>6</v>
+      </c>
+      <c r="D44" s="202" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="202">
+        <v>2</v>
+      </c>
+      <c r="F44" s="202">
         <v>1</v>
       </c>
-      <c r="G39" s="262" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="272"/>
-      <c r="C40" s="261">
-        <v>2</v>
-      </c>
-      <c r="D40" s="262" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="262">
-        <v>2</v>
-      </c>
-      <c r="F40" s="262">
-        <v>22</v>
-      </c>
-      <c r="G40" s="262" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="272"/>
-      <c r="C41" s="262">
-        <v>3</v>
-      </c>
-      <c r="D41" s="261" t="s">
-        <v>275</v>
-      </c>
-      <c r="E41" s="261">
-        <v>17</v>
-      </c>
-      <c r="F41" s="261">
-        <v>3</v>
-      </c>
-      <c r="G41" s="261" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="272"/>
-      <c r="C42" s="261">
-        <v>4</v>
-      </c>
-      <c r="D42" s="262" t="s">
-        <v>275</v>
-      </c>
-      <c r="E42" s="262">
-        <v>2</v>
-      </c>
-      <c r="F42" s="262">
-        <v>-5</v>
-      </c>
-      <c r="G42" s="262" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="272"/>
-      <c r="C43" s="262">
-        <v>5</v>
-      </c>
-      <c r="D43" s="261" t="s">
-        <v>275</v>
-      </c>
-      <c r="E43" s="261">
-        <v>-7</v>
-      </c>
-      <c r="F43" s="261">
-        <v>4</v>
-      </c>
-      <c r="G43" s="261" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="272"/>
-      <c r="C44" s="261">
-        <v>6</v>
-      </c>
-      <c r="D44" s="261" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="261">
-        <v>2</v>
-      </c>
-      <c r="F44" s="261">
-        <v>1</v>
-      </c>
-      <c r="G44" s="261" t="s">
-        <v>152</v>
+      <c r="G44" s="202" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5582,226 +5571,226 @@
   </cols>
   <sheetData>
     <row r="26" spans="2:6">
-      <c r="B26" s="275"/>
+      <c r="B26" s="211"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="291" t="s">
+      <c r="B27" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="291" t="s">
+      <c r="C27" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="291" t="s">
+      <c r="D27" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="291" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="291" t="s">
-        <v>167</v>
+      <c r="E27" s="225" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="225" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="244" t="s">
+      <c r="B28" s="268" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="184" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="287" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="235" t="s">
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="268"/>
+      <c r="C29" s="185" t="s">
         <v>279</v>
       </c>
-      <c r="D28" s="288" t="s">
+      <c r="D29" s="287"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+    </row>
+    <row r="30" spans="2:6" ht="28.8">
+      <c r="B30" s="268"/>
+      <c r="C30" s="219" t="s">
         <v>280</v>
       </c>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="244"/>
-      <c r="C29" s="236" t="s">
+      <c r="D30" s="287"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+    </row>
+    <row r="31" spans="2:6" ht="28.8">
+      <c r="B31" s="268"/>
+      <c r="C31" s="219" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="288"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-    </row>
-    <row r="30" spans="2:6" ht="28.8">
-      <c r="B30" s="244"/>
-      <c r="C30" s="283" t="s">
+      <c r="D31" s="287"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+    </row>
+    <row r="32" spans="2:6" ht="28.8">
+      <c r="B32" s="268"/>
+      <c r="C32" s="219" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="288"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-    </row>
-    <row r="31" spans="2:6" ht="28.8">
-      <c r="B31" s="244"/>
-      <c r="C31" s="283" t="s">
+      <c r="D32" s="287"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="219"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="223"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="198"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="226" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="288"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-    </row>
-    <row r="32" spans="2:6" ht="28.8">
-      <c r="B32" s="244"/>
-      <c r="C32" s="283" t="s">
+      <c r="C37" s="226"/>
+      <c r="D37" s="226" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="224"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="288"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="283"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="287"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="256"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="292" t="s">
+      <c r="E38" s="224" t="s">
         <v>285</v>
       </c>
-      <c r="C37" s="292"/>
-      <c r="D37" s="292" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="292"/>
-      <c r="F37" s="292"/>
-      <c r="G37" s="292" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="289"/>
-      <c r="C38" s="289"/>
-      <c r="D38" s="289" t="s">
+      <c r="F38" s="224" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="289" t="s">
+      <c r="G38" s="224"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="286" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="200">
+        <v>1</v>
+      </c>
+      <c r="D39" s="200" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="200" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="200" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="200" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="286"/>
+      <c r="C40" s="206">
+        <v>2</v>
+      </c>
+      <c r="D40" s="206" t="s">
         <v>287</v>
       </c>
-      <c r="F38" s="289" t="s">
+      <c r="E40" s="206" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="206" t="s">
         <v>288</v>
       </c>
-      <c r="G38" s="289"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="259" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="258">
-        <v>1</v>
-      </c>
-      <c r="D39" s="258" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="258" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="258" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="258" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="259"/>
-      <c r="C40" s="268">
-        <v>2</v>
-      </c>
-      <c r="D40" s="268" t="s">
+      <c r="G40" s="206" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="286"/>
+      <c r="C41" s="205">
+        <v>3</v>
+      </c>
+      <c r="D41" s="205" t="s">
+        <v>287</v>
+      </c>
+      <c r="E41" s="205" t="s">
         <v>289</v>
       </c>
-      <c r="E40" s="268" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="268" t="s">
+      <c r="F41" s="205" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="205" t="s">
         <v>290</v>
       </c>
-      <c r="G40" s="268" t="s">
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="286"/>
+      <c r="C42" s="206">
+        <v>4</v>
+      </c>
+      <c r="D42" s="206" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="206" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="206" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="206" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="286"/>
+      <c r="C43" s="200">
+        <v>5</v>
+      </c>
+      <c r="D43" s="200" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="200" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="259"/>
-      <c r="C41" s="267">
-        <v>3</v>
-      </c>
-      <c r="D41" s="267" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="267" t="s">
+      <c r="F43" s="200" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" s="200" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="201" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="199">
+        <v>6</v>
+      </c>
+      <c r="D44" s="199" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="199" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="267" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="267" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="259"/>
-      <c r="C42" s="268">
-        <v>4</v>
-      </c>
-      <c r="D42" s="268" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" s="268" t="s">
+      <c r="F44" s="199" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="199" t="s">
         <v>293</v>
-      </c>
-      <c r="F42" s="268" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" s="268" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="259"/>
-      <c r="C43" s="258">
-        <v>5</v>
-      </c>
-      <c r="D43" s="258" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="F43" s="258" t="s">
-        <v>290</v>
-      </c>
-      <c r="G43" s="258" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="290" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="257">
-        <v>6</v>
-      </c>
-      <c r="D44" s="257" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="257" t="s">
-        <v>293</v>
-      </c>
-      <c r="F44" s="257" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="257" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5834,91 +5823,91 @@
   </cols>
   <sheetData>
     <row r="21" spans="2:6">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="133" t="s">
+      <c r="E21" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="133" t="s">
+      <c r="F21" s="132" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="129" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="B22" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="129"/>
-      <c r="C23" s="129" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="133"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="127">
+        <v>1</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="127">
+        <v>9</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="128"/>
+      <c r="C28" s="128">
+        <v>2</v>
+      </c>
+      <c r="D28" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="128" t="s">
         <v>184</v>
-      </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="134"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="128">
-        <v>1</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="128">
-        <v>9</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="129"/>
-      <c r="C28" s="129">
-        <v>2</v>
-      </c>
-      <c r="D28" s="129" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="129" t="s">
-        <v>186</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -5947,111 +5936,111 @@
   </cols>
   <sheetData>
     <row r="24" spans="2:6">
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="133" t="s">
+      <c r="D24" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="133" t="s">
+      <c r="E24" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="133" t="s">
+      <c r="F24" s="132" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="128"/>
+      <c r="C26" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="128" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="129"/>
-      <c r="C26" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="129" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="152" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129">
+      <c r="D28" s="128"/>
+      <c r="E28" s="128">
         <v>0</v>
       </c>
-      <c r="F28" s="129">
+      <c r="F28" s="128">
         <v>-1</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="129" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="129" t="b">
+      <c r="B33" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="128" t="b">
         <v>1</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="129"/>
-      <c r="C34" s="129" t="b">
+      <c r="B34" s="128"/>
+      <c r="C34" s="128" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="8"/>
@@ -6061,95 +6050,95 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="212" t="s">
+      <c r="B36" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="224" t="s">
+      <c r="C36" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="225" t="s">
+      <c r="D36" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="226"/>
-      <c r="F36" s="212" t="s">
+      <c r="E36" s="293"/>
+      <c r="F36" s="261" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="212"/>
-      <c r="C37" s="223"/>
-      <c r="D37" s="134" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="212"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="261"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="213" t="s">
+      <c r="B38" s="288" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="128">
+      <c r="C38" s="127">
         <v>1</v>
       </c>
-      <c r="D38" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="128">
+      <c r="D38" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="127">
         <v>9</v>
       </c>
-      <c r="F38" s="128" t="b">
+      <c r="F38" s="127" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="214"/>
-      <c r="C39" s="128">
+      <c r="B39" s="289"/>
+      <c r="C39" s="127">
         <v>2</v>
       </c>
-      <c r="D39" s="128" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="128">
+      <c r="D39" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="127">
         <v>9</v>
       </c>
-      <c r="F39" s="128" t="b">
+      <c r="F39" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="128">
+      <c r="B40" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="127">
         <v>1</v>
       </c>
-      <c r="D40" s="128" t="s">
-        <v>175</v>
+      <c r="D40" s="127" t="s">
+        <v>173</v>
       </c>
       <c r="E40" s="26">
         <v>0</v>
       </c>
-      <c r="F40" s="128" t="b">
+      <c r="F40" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="128" t="s">
+      <c r="B41" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="128">
+      <c r="C41" s="127">
         <v>1</v>
       </c>
-      <c r="D41" s="128" t="s">
-        <v>177</v>
+      <c r="D41" s="127" t="s">
+        <v>175</v>
       </c>
       <c r="E41" s="26">
         <v>-1</v>
       </c>
-      <c r="F41" s="128" t="s">
-        <v>179</v>
+      <c r="F41" s="127" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -6191,276 +6180,276 @@
   </cols>
   <sheetData>
     <row r="24" spans="2:7">
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="133" t="s">
+      <c r="D24" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="133" t="s">
+      <c r="E24" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="133" t="s">
+      <c r="F24" s="132" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="143" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="129" t="s">
+      <c r="B25" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="128">
         <v>0</v>
       </c>
-      <c r="F25" s="129">
+      <c r="F25" s="128">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="16.2" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129" t="s">
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="127"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="128">
+        <v>0</v>
+      </c>
+      <c r="F27" s="128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="128"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="261" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="261" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="261"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="261"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="133" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="133" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="261"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="128">
+        <v>1</v>
+      </c>
+      <c r="D32" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="128"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="129">
-        <v>0</v>
-      </c>
-      <c r="F27" s="129">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129" t="s">
+      <c r="E32" s="128">
+        <v>1</v>
+      </c>
+      <c r="F32" s="128">
+        <v>4</v>
+      </c>
+      <c r="G32" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="E28" s="129" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="129"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="212" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="212" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="212" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="212"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="129">
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="128">
         <v>1</v>
       </c>
-      <c r="D32" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="129">
-        <v>1</v>
-      </c>
-      <c r="F32" s="129">
-        <v>4</v>
-      </c>
-      <c r="G32" s="129" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="211" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="129">
-        <v>1</v>
-      </c>
-      <c r="D33" s="129" t="s">
-        <v>221</v>
+      <c r="D33" s="128" t="s">
+        <v>219</v>
       </c>
       <c r="E33" s="26">
         <v>-1</v>
       </c>
-      <c r="F33" s="129">
+      <c r="F33" s="128">
         <v>4</v>
       </c>
-      <c r="G33" s="129" t="s">
-        <v>224</v>
+      <c r="G33" s="128" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="211"/>
-      <c r="C34" s="129">
+      <c r="B34" s="260"/>
+      <c r="C34" s="128">
         <v>2</v>
       </c>
-      <c r="D34" s="129" t="s">
-        <v>221</v>
+      <c r="D34" s="128" t="s">
+        <v>219</v>
       </c>
       <c r="E34" s="26">
         <v>5</v>
       </c>
-      <c r="F34" s="129">
+      <c r="F34" s="128">
         <v>4</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="260"/>
+      <c r="C35" s="128">
+        <v>3</v>
+      </c>
+      <c r="D35" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="127">
+        <v>1</v>
+      </c>
+      <c r="F35" s="146">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="260"/>
+      <c r="C36" s="128">
+        <v>4</v>
+      </c>
+      <c r="D36" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="127">
+        <v>1</v>
+      </c>
+      <c r="F36" s="146">
+        <v>7</v>
+      </c>
+      <c r="G36" s="128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="260" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="128">
+        <v>1</v>
+      </c>
+      <c r="D37" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="128">
+        <v>0</v>
+      </c>
+      <c r="F37" s="128">
+        <v>0</v>
+      </c>
+      <c r="G37" s="128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="260"/>
+      <c r="C38" s="128">
+        <v>2</v>
+      </c>
+      <c r="D38" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="128">
+        <v>4</v>
+      </c>
+      <c r="F38" s="128">
+        <v>5</v>
+      </c>
+      <c r="G38" s="128" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="211"/>
-      <c r="C35" s="129">
+    <row r="39" spans="2:7">
+      <c r="B39" s="260" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="128">
+        <v>1</v>
+      </c>
+      <c r="D39" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="146">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="128">
+        <v>4</v>
+      </c>
+      <c r="G39" s="128" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="260"/>
+      <c r="C40" s="128">
         <v>3</v>
       </c>
-      <c r="D35" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="128">
+      <c r="D40" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="128">
         <v>1</v>
       </c>
-      <c r="F35" s="147">
+      <c r="F40" s="146">
         <v>-1</v>
       </c>
-      <c r="G35" s="129" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="211"/>
-      <c r="C36" s="129">
-        <v>4</v>
-      </c>
-      <c r="D36" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="128">
-        <v>1</v>
-      </c>
-      <c r="F36" s="147">
-        <v>7</v>
-      </c>
-      <c r="G36" s="129" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="211" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="129">
-        <v>1</v>
-      </c>
-      <c r="D37" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="129">
-        <v>0</v>
-      </c>
-      <c r="F37" s="129">
-        <v>0</v>
-      </c>
-      <c r="G37" s="129" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="211"/>
-      <c r="C38" s="129">
-        <v>2</v>
-      </c>
-      <c r="D38" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="129">
-        <v>4</v>
-      </c>
-      <c r="F38" s="129">
-        <v>5</v>
-      </c>
-      <c r="G38" s="129" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="211" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="129">
-        <v>1</v>
-      </c>
-      <c r="D39" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="147">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="129">
-        <v>4</v>
-      </c>
-      <c r="G39" s="129" t="s">
+      <c r="G40" s="128" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="211"/>
-      <c r="C40" s="129">
-        <v>3</v>
-      </c>
-      <c r="D40" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="129">
-        <v>1</v>
-      </c>
-      <c r="F40" s="147">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="129" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6482,7 +6471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B26:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -6497,117 +6486,117 @@
   </cols>
   <sheetData>
     <row r="26" spans="2:6">
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="133" t="s">
+      <c r="E26" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="133" t="s">
+      <c r="F26" s="132" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="28.8">
-      <c r="B27" s="211" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="141" t="s">
+      <c r="B27" s="260" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="140" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="128"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="260"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="261" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="261"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="133" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="261"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="128">
+        <v>1</v>
+      </c>
+      <c r="D32" s="128" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="E32" s="128">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="128">
+        <v>1</v>
+      </c>
+      <c r="D33" s="146"/>
+      <c r="E33" s="128" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="43.2">
+      <c r="B34" s="260"/>
+      <c r="C34" s="128">
+        <v>2</v>
+      </c>
+      <c r="D34" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="129"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="211"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="212" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="212" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="212" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="134" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="212"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="129">
+      <c r="E34" s="140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="128">
         <v>1</v>
       </c>
-      <c r="D32" s="129" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="129">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="211" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="129">
-        <v>1</v>
-      </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="129" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="43.2">
-      <c r="B34" s="211"/>
-      <c r="C34" s="129">
-        <v>2</v>
-      </c>
-      <c r="D34" s="147" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="141" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="129" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="129">
-        <v>1</v>
-      </c>
-      <c r="D35" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="129">
+      <c r="D35" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="128">
         <v>15</v>
       </c>
     </row>
@@ -6653,20 +6642,20 @@
   </cols>
   <sheetData>
     <row r="25" spans="2:6" ht="19.95" customHeight="1">
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="253"/>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1">
-      <c r="B26" s="201"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
+      <c r="B26" s="254"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1">
       <c r="B27" s="111" t="s">
@@ -6696,10 +6685,10 @@
         <v>67</v>
       </c>
       <c r="E28" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -6709,10 +6698,10 @@
         <v>68</v>
       </c>
       <c r="E29" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -6737,7 +6726,7 @@
       <c r="B32" s="81"/>
       <c r="C32" s="4"/>
       <c r="D32" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="22"/>
@@ -6766,7 +6755,7 @@
         <v>74</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F34" s="19">
         <v>65</v>
@@ -6776,7 +6765,7 @@
       <c r="B35" s="80"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="19"/>
@@ -6785,7 +6774,7 @@
       <c r="B36" s="80"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="19"/>
@@ -6794,17 +6783,17 @@
       <c r="B37" s="81"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="204" t="s">
+      <c r="B38" s="257" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>76</v>
@@ -6813,10 +6802,10 @@
       <c r="F38" s="32"/>
     </row>
     <row r="39" spans="2:9" ht="15" thickBot="1">
-      <c r="B39" s="205"/>
+      <c r="B39" s="258"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="22"/>
@@ -6833,7 +6822,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -6844,7 +6833,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -6869,36 +6858,36 @@
       <c r="B44" s="81"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
     </row>
     <row r="46" spans="2:9" ht="15" thickBot="1"/>
     <row r="47" spans="2:9" ht="15" thickBot="1">
-      <c r="B47" s="202" t="s">
+      <c r="B47" s="255" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="197" t="s">
+      <c r="C47" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="197" t="s">
+      <c r="D47" s="251" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="207" t="s">
+      <c r="E47" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="208"/>
-      <c r="G47" s="208"/>
-      <c r="H47" s="209"/>
-      <c r="I47" s="197" t="s">
+      <c r="F47" s="249"/>
+      <c r="G47" s="249"/>
+      <c r="H47" s="250"/>
+      <c r="I47" s="251" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="15" thickBot="1">
-      <c r="B48" s="203"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="198"/>
+      <c r="B48" s="256"/>
+      <c r="C48" s="252"/>
+      <c r="D48" s="252"/>
       <c r="E48" s="42" t="s">
         <v>65</v>
       </c>
@@ -6911,7 +6900,7 @@
       <c r="H48" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="198"/>
+      <c r="I48" s="252"/>
     </row>
     <row r="49" spans="2:9" ht="15" thickBot="1">
       <c r="B49" s="82">
@@ -6943,7 +6932,7 @@
       <c r="B50" s="84">
         <v>2</v>
       </c>
-      <c r="C50" s="199" t="s">
+      <c r="C50" s="247" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="114">
@@ -6969,7 +6958,7 @@
       <c r="B51" s="84">
         <v>3</v>
       </c>
-      <c r="C51" s="199"/>
+      <c r="C51" s="247"/>
       <c r="D51" s="114">
         <v>2</v>
       </c>
@@ -6993,7 +6982,7 @@
       <c r="B52" s="84">
         <v>4</v>
       </c>
-      <c r="C52" s="199"/>
+      <c r="C52" s="247"/>
       <c r="D52" s="114">
         <v>3</v>
       </c>
@@ -7017,7 +7006,7 @@
       <c r="B53" s="84">
         <v>5</v>
       </c>
-      <c r="C53" s="199"/>
+      <c r="C53" s="247"/>
       <c r="D53" s="114">
         <v>4</v>
       </c>
@@ -7041,7 +7030,7 @@
       <c r="B54" s="84">
         <v>6</v>
       </c>
-      <c r="C54" s="199"/>
+      <c r="C54" s="247"/>
       <c r="D54" s="114">
         <v>5</v>
       </c>
@@ -7063,7 +7052,7 @@
       <c r="B55" s="84">
         <v>7</v>
       </c>
-      <c r="C55" s="199"/>
+      <c r="C55" s="247"/>
       <c r="D55" s="114">
         <v>6</v>
       </c>
@@ -7087,7 +7076,7 @@
       <c r="B56" s="84">
         <v>8</v>
       </c>
-      <c r="C56" s="199"/>
+      <c r="C56" s="247"/>
       <c r="D56" s="114">
         <v>7</v>
       </c>
@@ -7111,7 +7100,7 @@
       <c r="B57" s="84">
         <v>9</v>
       </c>
-      <c r="C57" s="199"/>
+      <c r="C57" s="247"/>
       <c r="D57" s="114">
         <v>8</v>
       </c>
@@ -7135,7 +7124,7 @@
       <c r="B58" s="84">
         <v>10</v>
       </c>
-      <c r="C58" s="199"/>
+      <c r="C58" s="247"/>
       <c r="D58" s="114">
         <v>9</v>
       </c>
@@ -7159,7 +7148,7 @@
       <c r="B59" s="84">
         <v>11</v>
       </c>
-      <c r="C59" s="199"/>
+      <c r="C59" s="247"/>
       <c r="D59" s="114">
         <v>10</v>
       </c>
@@ -7181,7 +7170,7 @@
       <c r="B60" s="84">
         <v>12</v>
       </c>
-      <c r="C60" s="199"/>
+      <c r="C60" s="247"/>
       <c r="D60" s="114">
         <v>11</v>
       </c>
@@ -7205,7 +7194,7 @@
       <c r="B61" s="84">
         <v>13</v>
       </c>
-      <c r="C61" s="199"/>
+      <c r="C61" s="247"/>
       <c r="D61" s="114">
         <v>12</v>
       </c>
@@ -7220,14 +7209,14 @@
         <v>84</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="84">
         <v>14</v>
       </c>
-      <c r="C62" s="199"/>
+      <c r="C62" s="247"/>
       <c r="D62" s="114">
         <v>13</v>
       </c>
@@ -7251,7 +7240,7 @@
       <c r="B63" s="84">
         <v>15</v>
       </c>
-      <c r="C63" s="199"/>
+      <c r="C63" s="247"/>
       <c r="D63" s="114">
         <v>14</v>
       </c>
@@ -7275,7 +7264,7 @@
       <c r="B64" s="84">
         <v>16</v>
       </c>
-      <c r="C64" s="199"/>
+      <c r="C64" s="247"/>
       <c r="D64" s="114">
         <v>15</v>
       </c>
@@ -7299,7 +7288,7 @@
       <c r="B65" s="84">
         <v>17</v>
       </c>
-      <c r="C65" s="199"/>
+      <c r="C65" s="247"/>
       <c r="D65" s="114">
         <v>16</v>
       </c>
@@ -7323,7 +7312,7 @@
       <c r="B66" s="84">
         <v>18</v>
       </c>
-      <c r="C66" s="199"/>
+      <c r="C66" s="247"/>
       <c r="D66" s="114">
         <v>17</v>
       </c>
@@ -7345,7 +7334,7 @@
       <c r="B67" s="84">
         <v>19</v>
       </c>
-      <c r="C67" s="206" t="s">
+      <c r="C67" s="246" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="28">
@@ -7371,7 +7360,7 @@
       <c r="B68" s="84">
         <v>20</v>
       </c>
-      <c r="C68" s="199"/>
+      <c r="C68" s="247"/>
       <c r="D68" s="27">
         <v>2</v>
       </c>
@@ -7510,7 +7499,7 @@
         <v>100</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15" thickBot="1">
@@ -7534,20 +7523,20 @@
         <v>113</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B25:F26"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="C50:C66"/>
-    <mergeCell ref="B25:F26"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7562,8 +7551,8 @@
   </sheetPr>
   <dimension ref="A21:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7576,276 +7565,276 @@
   </cols>
   <sheetData>
     <row r="21" spans="2:7">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="133" t="s">
+      <c r="E21" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="133" t="s">
+      <c r="F21" s="132" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="51"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="128" t="s">
+      <c r="B22" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="128">
+      <c r="E22" s="127">
         <v>0</v>
       </c>
-      <c r="F22" s="128">
+      <c r="F22" s="127">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="128">
+      <c r="E23" s="127">
         <v>1</v>
       </c>
-      <c r="F23" s="128">
+      <c r="F23" s="127">
         <v>1001</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128">
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127">
         <v>2</v>
       </c>
-      <c r="F24" s="128"/>
+      <c r="F24" s="127"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128">
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127">
         <v>1000</v>
       </c>
-      <c r="F25" s="128"/>
+      <c r="F25" s="127"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
-      <c r="F26" s="227"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="227"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="210" t="s">
+      <c r="A34" s="259" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="212" t="s">
+      <c r="B34" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="212" t="s">
+      <c r="C34" s="261" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="134" t="s">
+      <c r="D34" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="212" t="s">
+      <c r="E34" s="261" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="210"/>
-      <c r="B35" s="212"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="212"/>
+      <c r="A35" s="259"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="133" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="261"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="128">
+      <c r="A36" s="127">
         <v>1</v>
       </c>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="129">
+      <c r="C36" s="128">
         <v>1</v>
       </c>
-      <c r="D36" s="129">
+      <c r="D36" s="128">
         <v>499</v>
       </c>
-      <c r="E36" s="128" t="b">
+      <c r="E36" s="127" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="128">
+      <c r="A37" s="127">
         <v>2</v>
       </c>
-      <c r="B37" s="211"/>
-      <c r="C37" s="129">
+      <c r="B37" s="260"/>
+      <c r="C37" s="128">
         <v>2</v>
       </c>
-      <c r="D37" s="129">
+      <c r="D37" s="128">
         <v>555</v>
       </c>
-      <c r="E37" s="128" t="b">
+      <c r="E37" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="128">
+      <c r="A38" s="127">
         <v>3</v>
       </c>
-      <c r="B38" s="211" t="s">
+      <c r="B38" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="129">
+      <c r="C38" s="128">
         <v>1</v>
       </c>
-      <c r="D38" s="135">
+      <c r="D38" s="134">
         <v>-16</v>
       </c>
-      <c r="E38" s="126" t="s">
-        <v>120</v>
+      <c r="E38" s="127" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="128">
+      <c r="A39" s="127">
         <v>4</v>
       </c>
-      <c r="B39" s="211"/>
-      <c r="C39" s="129">
+      <c r="B39" s="260"/>
+      <c r="C39" s="128">
         <v>2</v>
       </c>
-      <c r="D39" s="135">
+      <c r="D39" s="134">
         <v>5555</v>
       </c>
-      <c r="E39" s="126" t="s">
-        <v>119</v>
+      <c r="E39" s="127" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="128">
+      <c r="A40" s="127">
         <v>5</v>
       </c>
-      <c r="B40" s="211" t="s">
+      <c r="B40" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="129">
+      <c r="C40" s="128">
         <v>1</v>
       </c>
-      <c r="D40" s="129">
+      <c r="D40" s="128">
         <v>0</v>
       </c>
-      <c r="E40" s="126" t="b">
+      <c r="E40" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="128">
+      <c r="A41" s="127">
         <v>6</v>
       </c>
-      <c r="B41" s="211"/>
-      <c r="C41" s="129">
+      <c r="B41" s="260"/>
+      <c r="C41" s="128">
         <v>2</v>
       </c>
-      <c r="D41" s="129">
+      <c r="D41" s="128">
         <v>1</v>
       </c>
-      <c r="E41" s="126" t="b">
+      <c r="E41" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="128">
+      <c r="A42" s="127">
         <v>7</v>
       </c>
-      <c r="B42" s="211"/>
-      <c r="C42" s="129">
+      <c r="B42" s="260"/>
+      <c r="C42" s="128">
         <v>3</v>
       </c>
-      <c r="D42" s="129">
+      <c r="D42" s="128">
         <v>2</v>
       </c>
-      <c r="E42" s="126" t="b">
+      <c r="E42" s="127" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="128">
+      <c r="A43" s="127">
         <v>8</v>
       </c>
-      <c r="B43" s="211"/>
-      <c r="C43" s="129">
+      <c r="B43" s="260"/>
+      <c r="C43" s="128">
         <v>4</v>
       </c>
-      <c r="D43" s="129">
+      <c r="D43" s="128">
         <v>1000</v>
       </c>
-      <c r="E43" s="126" t="b">
+      <c r="E43" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="128">
+      <c r="A44" s="127">
         <v>9</v>
       </c>
-      <c r="B44" s="211" t="s">
+      <c r="B44" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="129">
+      <c r="C44" s="128">
         <v>1</v>
       </c>
-      <c r="D44" s="147">
+      <c r="D44" s="146">
         <v>-1</v>
       </c>
-      <c r="E44" s="126" t="s">
-        <v>120</v>
+      <c r="E44" s="127" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="128">
+      <c r="A45" s="127">
         <v>10</v>
       </c>
-      <c r="B45" s="211"/>
-      <c r="C45" s="128">
+      <c r="B45" s="260"/>
+      <c r="C45" s="127">
         <v>2</v>
       </c>
       <c r="D45" s="26">
         <v>1001</v>
       </c>
-      <c r="E45" s="126" t="s">
-        <v>119</v>
+      <c r="E45" s="127" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -7902,133 +7891,125 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="211" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="130" t="s">
+      <c r="B34" s="260" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="129" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="129">
+      <c r="E34" s="128">
         <v>1582</v>
       </c>
-      <c r="F34" s="129">
+      <c r="F34" s="128">
         <v>1581</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="211"/>
-      <c r="C35" s="130" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
+      <c r="B35" s="260"/>
+      <c r="C35" s="129" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
+      <c r="B36" s="262"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="229"/>
+      <c r="B37" s="262"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="210" t="s">
+      <c r="B41" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="210" t="s">
+      <c r="C41" s="259" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="210" t="s">
+      <c r="E41" s="259" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="210"/>
-      <c r="C42" s="210"/>
+      <c r="B42" s="259"/>
+      <c r="C42" s="259"/>
       <c r="D42" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="210"/>
+        <v>146</v>
+      </c>
+      <c r="E42" s="259"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="128">
+      <c r="C43" s="127">
         <v>1</v>
       </c>
-      <c r="D43" s="128">
+      <c r="D43" s="127">
         <v>2024</v>
       </c>
-      <c r="E43" s="128" t="b">
+      <c r="E43" s="127" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="128"/>
-      <c r="C44" s="128">
+      <c r="B44" s="127"/>
+      <c r="C44" s="127">
         <v>2</v>
       </c>
-      <c r="D44" s="128">
+      <c r="D44" s="127">
         <v>2025</v>
       </c>
-      <c r="E44" s="128" t="b">
+      <c r="E44" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="128" t="s">
+      <c r="B45" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="128">
+      <c r="C45" s="127">
         <v>1</v>
       </c>
       <c r="D45" s="26">
         <v>1500</v>
       </c>
-      <c r="E45" s="128" t="s">
-        <v>149</v>
+      <c r="E45" s="127" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="128" t="s">
+      <c r="B46" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="128">
+      <c r="C46" s="127">
         <v>1</v>
       </c>
       <c r="D46" s="26">
         <v>1582</v>
       </c>
-      <c r="E46" s="128" t="b">
+      <c r="E46" s="127" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="128">
+      <c r="C47" s="127">
         <v>1</v>
       </c>
       <c r="D47" s="26">
         <v>1581</v>
       </c>
-      <c r="E47" s="128" t="s">
-        <v>149</v>
+      <c r="E47" s="127" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -8065,106 +8046,106 @@
   </cols>
   <sheetData>
     <row r="26" spans="2:6">
-      <c r="B26" s="230" t="s">
+      <c r="B26" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="230" t="s">
+      <c r="C26" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="230" t="s">
+      <c r="D26" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="230" t="s">
+      <c r="E26" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="230" t="s">
+      <c r="F26" s="180" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="22.5" customHeight="1">
-      <c r="B27" s="231" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
+      <c r="B27" s="181" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
     </row>
     <row r="28" spans="2:6" ht="18" customHeight="1">
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="24"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="215"/>
+      <c r="B30" s="262"/>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="215"/>
+      <c r="B31" s="262"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="216" t="s">
+      <c r="B35" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="216" t="s">
+      <c r="C35" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="178" t="s">
+      <c r="D35" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="216" t="s">
+      <c r="E35" s="263" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="216"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="137" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="216"/>
+      <c r="B36" s="263"/>
+      <c r="C36" s="263"/>
+      <c r="D36" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="263"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="232" t="s">
+      <c r="B37" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="128">
+      <c r="C37" s="127">
         <v>1</v>
       </c>
-      <c r="D37" s="128">
+      <c r="D37" s="127">
         <v>101</v>
       </c>
-      <c r="E37" s="128">
+      <c r="E37" s="127">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="233" t="s">
+      <c r="B38" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="128">
+      <c r="C38" s="127">
         <v>1</v>
       </c>
-      <c r="D38" s="136" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="128" t="s">
-        <v>153</v>
+      <c r="D38" s="135" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="127" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -8200,7 +8181,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:P38"/>
+  <dimension ref="B3:P37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -8226,669 +8207,656 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:16">
-      <c r="H3" s="276" t="s">
+      <c r="H3" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="276" t="s">
+      <c r="I3" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="276" t="s">
+      <c r="J3" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="276" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="276" t="s">
+      <c r="K3" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="212" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="5:16">
-      <c r="H4" s="245" t="s">
+      <c r="H4" s="191" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="191" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="191">
+        <v>1</v>
+      </c>
+      <c r="L4" s="191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16">
+      <c r="H5" s="189" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="189" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="189" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="189">
+        <v>1</v>
+      </c>
+      <c r="L5" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16">
+      <c r="H6" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="245" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="245" t="s">
+      <c r="I6" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="191" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="191">
+        <v>1</v>
+      </c>
+      <c r="L6" s="191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16">
+      <c r="H7" s="267" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="267" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="245">
+      <c r="J7" s="189" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" s="267" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7" s="189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="191" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="267"/>
+      <c r="L8" s="191" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16">
+      <c r="H9" s="267"/>
+      <c r="I9" s="267"/>
+      <c r="J9" s="189" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="267"/>
+      <c r="L9" s="189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" ht="28.8">
+      <c r="E10" s="144"/>
+      <c r="H10" s="186" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="190" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="191"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+    </row>
+    <row r="11" spans="5:16">
+      <c r="E11" s="144"/>
+      <c r="H11" s="186" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="189" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+    </row>
+    <row r="12" spans="5:16">
+      <c r="E12" s="144"/>
+      <c r="H12" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="191" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" s="191"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+    </row>
+    <row r="13" spans="5:16">
+      <c r="E13" s="144"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="189" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+    </row>
+    <row r="14" spans="5:16">
+      <c r="E14" s="175"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="191" t="s">
+        <v>249</v>
+      </c>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+    </row>
+    <row r="15" spans="5:16">
+      <c r="E15" s="176"/>
+    </row>
+    <row r="16" spans="5:16">
+      <c r="E16" s="175"/>
+      <c r="H16" s="213" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="213" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" s="213" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="213" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="213" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="213" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="214"/>
+      <c r="O16" s="214"/>
+      <c r="P16" s="215"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="E17" s="176"/>
+      <c r="H17" s="266" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="202">
         <v>1</v>
       </c>
-      <c r="L4" s="245">
+      <c r="J17" s="202">
+        <v>2</v>
+      </c>
+      <c r="K17" s="202">
+        <v>4</v>
+      </c>
+      <c r="L17" s="202">
+        <v>5</v>
+      </c>
+      <c r="M17" s="202" t="s">
+        <v>242</v>
+      </c>
+      <c r="N17" s="216"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="215"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="E18" s="175"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="203">
+        <v>2</v>
+      </c>
+      <c r="J18" s="203">
+        <v>2</v>
+      </c>
+      <c r="K18" s="203">
+        <v>2</v>
+      </c>
+      <c r="L18" s="203">
+        <v>2</v>
+      </c>
+      <c r="M18" s="203" t="s">
+        <v>244</v>
+      </c>
+      <c r="N18" s="217"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="215"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="E19" s="176"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="202">
+        <v>3</v>
+      </c>
+      <c r="J19" s="202">
+        <v>4</v>
+      </c>
+      <c r="K19" s="202">
+        <v>4</v>
+      </c>
+      <c r="L19" s="202">
+        <v>2</v>
+      </c>
+      <c r="M19" s="202" t="s">
+        <v>246</v>
+      </c>
+      <c r="N19" s="216"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="215"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="E20" s="144"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="203">
+        <v>4</v>
+      </c>
+      <c r="J20" s="203">
+        <v>2</v>
+      </c>
+      <c r="K20" s="203">
+        <v>4</v>
+      </c>
+      <c r="L20" s="203">
+        <v>4</v>
+      </c>
+      <c r="M20" s="203" t="s">
+        <v>246</v>
+      </c>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="215"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="E21" s="144"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="202">
+        <v>5</v>
+      </c>
+      <c r="J21" s="202">
+        <v>4</v>
+      </c>
+      <c r="K21" s="202">
+        <v>2</v>
+      </c>
+      <c r="L21" s="202">
+        <v>4</v>
+      </c>
+      <c r="M21" s="202" t="s">
+        <v>246</v>
+      </c>
+      <c r="N21" s="216"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="215"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="H22" s="264" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="203">
+        <v>1</v>
+      </c>
+      <c r="J22" s="203">
+        <v>-2</v>
+      </c>
+      <c r="K22" s="203">
+        <v>5</v>
+      </c>
+      <c r="L22" s="203">
+        <v>6</v>
+      </c>
+      <c r="M22" s="203" t="s">
+        <v>254</v>
+      </c>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="215"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="H23" s="264"/>
+      <c r="I23" s="202">
+        <v>2</v>
+      </c>
+      <c r="J23" s="202">
+        <v>2</v>
+      </c>
+      <c r="K23" s="202">
+        <v>-5</v>
+      </c>
+      <c r="L23" s="202">
+        <v>6</v>
+      </c>
+      <c r="M23" s="202" t="s">
+        <v>254</v>
+      </c>
+      <c r="N23" s="216"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="215"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="H24" s="264"/>
+      <c r="I24" s="203">
+        <v>3</v>
+      </c>
+      <c r="J24" s="203">
+        <v>2</v>
+      </c>
+      <c r="K24" s="203">
+        <v>5</v>
+      </c>
+      <c r="L24" s="203">
+        <v>-6</v>
+      </c>
+      <c r="M24" s="203" t="s">
+        <v>254</v>
+      </c>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="215"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="H25" s="264"/>
+      <c r="I25" s="202">
+        <v>4</v>
+      </c>
+      <c r="J25" s="202">
+        <v>1</v>
+      </c>
+      <c r="K25" s="202">
+        <v>2</v>
+      </c>
+      <c r="L25" s="202">
+        <v>5</v>
+      </c>
+      <c r="M25" s="202" t="s">
+        <v>254</v>
+      </c>
+      <c r="N25" s="216"/>
+      <c r="O25" s="216"/>
+      <c r="P25" s="215"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="193"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="264"/>
+      <c r="I26" s="203">
+        <v>5</v>
+      </c>
+      <c r="J26" s="203">
+        <v>1</v>
+      </c>
+      <c r="K26" s="203">
+        <v>5</v>
+      </c>
+      <c r="L26" s="203">
+        <v>2</v>
+      </c>
+      <c r="M26" s="203" t="s">
+        <v>254</v>
+      </c>
+      <c r="N26" s="217"/>
+      <c r="O26" s="217"/>
+      <c r="P26" s="215"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="271"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="269"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="264"/>
+      <c r="I27" s="202">
+        <v>6</v>
+      </c>
+      <c r="J27" s="202">
+        <v>5</v>
+      </c>
+      <c r="K27" s="202">
+        <v>2</v>
+      </c>
+      <c r="L27" s="202">
+        <v>1</v>
+      </c>
+      <c r="M27" s="202" t="s">
+        <v>254</v>
+      </c>
+      <c r="N27" s="216"/>
+      <c r="O27" s="216"/>
+      <c r="P27" s="215"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="271"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="273"/>
+      <c r="E28" s="269"/>
+      <c r="F28" s="269"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="265" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="203">
+        <v>1</v>
+      </c>
+      <c r="J28" s="203">
+        <v>1</v>
+      </c>
+      <c r="K28" s="203">
+        <v>1</v>
+      </c>
+      <c r="L28" s="203">
+        <v>1</v>
+      </c>
+      <c r="M28" s="203" t="s">
+        <v>244</v>
+      </c>
+      <c r="N28" s="217"/>
+      <c r="O28" s="217"/>
+      <c r="P28" s="215"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="271"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="273"/>
+      <c r="E29" s="269"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="265"/>
+      <c r="I29" s="203">
+        <v>2</v>
+      </c>
+      <c r="J29" s="203">
+        <v>2</v>
+      </c>
+      <c r="K29" s="203">
+        <v>2</v>
+      </c>
+      <c r="L29" s="203">
+        <v>2</v>
+      </c>
+      <c r="M29" s="203" t="s">
+        <v>244</v>
+      </c>
+      <c r="N29" s="217"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="215"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="271"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="269"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="266" t="s">
+        <v>165</v>
+      </c>
+      <c r="I30" s="202">
+        <v>1</v>
+      </c>
+      <c r="J30" s="202">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="5:16">
-      <c r="H5" s="243" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="243" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="243" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="243">
-        <v>1</v>
-      </c>
-      <c r="L5" s="243">
+      <c r="K30" s="202">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="5:16">
-      <c r="H6" s="245" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="245" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="245" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="245">
-        <v>1</v>
-      </c>
-      <c r="L6" s="245">
+      <c r="L30" s="202">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="5:16">
-      <c r="H7" s="241" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" s="241" t="s">
-        <v>236</v>
-      </c>
-      <c r="J7" s="243" t="s">
-        <v>237</v>
-      </c>
-      <c r="K7" s="241" t="s">
-        <v>238</v>
-      </c>
-      <c r="L7" s="243" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="5:16">
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" s="241"/>
-      <c r="L8" s="245" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="5:16">
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="243" t="s">
-        <v>242</v>
-      </c>
-      <c r="K9" s="241"/>
-      <c r="L9" s="243" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="5:16" ht="28.8">
-      <c r="E10" s="145"/>
-      <c r="H10" s="237" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="242" t="s">
-        <v>245</v>
-      </c>
-      <c r="J10" s="245"/>
-      <c r="K10" s="245"/>
-      <c r="L10" s="245"/>
-    </row>
-    <row r="11" spans="5:16">
-      <c r="E11" s="145"/>
-      <c r="H11" s="237" t="s">
+      <c r="M30" s="202" t="s">
         <v>254</v>
       </c>
-      <c r="I11" s="243" t="s">
-        <v>247</v>
-      </c>
-      <c r="J11" s="243"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="243"/>
-    </row>
-    <row r="12" spans="5:16">
-      <c r="E12" s="145"/>
-      <c r="H12" s="244" t="s">
-        <v>252</v>
-      </c>
-      <c r="I12" s="245" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" s="245"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="245"/>
-    </row>
-    <row r="13" spans="5:16">
-      <c r="E13" s="145"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="243" t="s">
-        <v>250</v>
-      </c>
-      <c r="J13" s="243"/>
-      <c r="K13" s="243"/>
-      <c r="L13" s="243"/>
-    </row>
-    <row r="14" spans="5:16">
-      <c r="E14" s="176"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="245" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" s="245"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="245"/>
-    </row>
-    <row r="15" spans="5:16">
-      <c r="E15" s="177"/>
-    </row>
-    <row r="16" spans="5:16">
-      <c r="E16" s="176"/>
-      <c r="H16" s="277" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="277" t="s">
-        <v>255</v>
-      </c>
-      <c r="J16" s="277" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="277" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="277" t="s">
-        <v>162</v>
-      </c>
-      <c r="M16" s="277" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="278"/>
-      <c r="O16" s="278"/>
-      <c r="P16" s="279"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="E17" s="177"/>
-      <c r="H17" s="260" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="261">
-        <v>1</v>
-      </c>
-      <c r="J17" s="261">
+      <c r="N30" s="218"/>
+      <c r="O30" s="218"/>
+      <c r="P30" s="215"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="192"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="266"/>
+      <c r="I31" s="202">
         <v>2</v>
       </c>
-      <c r="K17" s="261">
+      <c r="J31" s="202">
+        <v>3</v>
+      </c>
+      <c r="K31" s="202">
+        <v>2</v>
+      </c>
+      <c r="L31" s="202">
+        <v>5</v>
+      </c>
+      <c r="M31" s="202" t="s">
+        <v>254</v>
+      </c>
+      <c r="N31" s="216"/>
+      <c r="O31" s="216"/>
+      <c r="P31" s="215"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="270"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="272"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="266"/>
+      <c r="I32" s="202">
+        <v>3</v>
+      </c>
+      <c r="J32" s="202">
+        <v>3</v>
+      </c>
+      <c r="K32" s="202">
+        <v>5</v>
+      </c>
+      <c r="L32" s="202">
+        <v>2</v>
+      </c>
+      <c r="M32" s="202" t="s">
+        <v>254</v>
+      </c>
+      <c r="N32" s="216"/>
+      <c r="O32" s="216"/>
+      <c r="P32" s="215"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="270"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="266"/>
+      <c r="I33" s="202">
         <v>4</v>
       </c>
-      <c r="L17" s="261">
+      <c r="J33" s="202">
         <v>5</v>
       </c>
-      <c r="M17" s="261" t="s">
-        <v>244</v>
-      </c>
-      <c r="N17" s="280"/>
-      <c r="O17" s="280"/>
-      <c r="P17" s="279"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="E18" s="176"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="262">
+      <c r="K33" s="202">
         <v>2</v>
       </c>
-      <c r="J18" s="262">
-        <v>2</v>
-      </c>
-      <c r="K18" s="262">
-        <v>2</v>
-      </c>
-      <c r="L18" s="262">
-        <v>2</v>
-      </c>
-      <c r="M18" s="262" t="s">
-        <v>246</v>
-      </c>
-      <c r="N18" s="281"/>
-      <c r="O18" s="281"/>
-      <c r="P18" s="279"/>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="E19" s="177"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="261">
+      <c r="L33" s="202">
         <v>3</v>
       </c>
-      <c r="J19" s="261">
-        <v>4</v>
-      </c>
-      <c r="K19" s="261">
-        <v>4</v>
-      </c>
-      <c r="L19" s="261">
-        <v>2</v>
-      </c>
-      <c r="M19" s="261" t="s">
-        <v>248</v>
-      </c>
-      <c r="N19" s="280"/>
-      <c r="O19" s="280"/>
-      <c r="P19" s="279"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="E20" s="145"/>
-      <c r="H20" s="260"/>
-      <c r="I20" s="262">
-        <v>4</v>
-      </c>
-      <c r="J20" s="262">
-        <v>2</v>
-      </c>
-      <c r="K20" s="262">
-        <v>4</v>
-      </c>
-      <c r="L20" s="262">
-        <v>4</v>
-      </c>
-      <c r="M20" s="262" t="s">
-        <v>248</v>
-      </c>
-      <c r="N20" s="281"/>
-      <c r="O20" s="281"/>
-      <c r="P20" s="279"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="E21" s="145"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="261">
-        <v>5</v>
-      </c>
-      <c r="J21" s="261">
-        <v>4</v>
-      </c>
-      <c r="K21" s="261">
-        <v>2</v>
-      </c>
-      <c r="L21" s="261">
-        <v>4</v>
-      </c>
-      <c r="M21" s="261" t="s">
-        <v>248</v>
-      </c>
-      <c r="N21" s="280"/>
-      <c r="O21" s="280"/>
-      <c r="P21" s="279"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="H22" s="263" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="262">
-        <v>1</v>
-      </c>
-      <c r="J22" s="262">
-        <v>-2</v>
-      </c>
-      <c r="K22" s="262">
-        <v>5</v>
-      </c>
-      <c r="L22" s="262">
-        <v>6</v>
-      </c>
-      <c r="M22" s="262" t="s">
-        <v>256</v>
-      </c>
-      <c r="N22" s="281"/>
-      <c r="O22" s="281"/>
-      <c r="P22" s="279"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="H23" s="263"/>
-      <c r="I23" s="261">
-        <v>2</v>
-      </c>
-      <c r="J23" s="261">
-        <v>2</v>
-      </c>
-      <c r="K23" s="261">
-        <v>-5</v>
-      </c>
-      <c r="L23" s="261">
-        <v>6</v>
-      </c>
-      <c r="M23" s="261" t="s">
-        <v>256</v>
-      </c>
-      <c r="N23" s="280"/>
-      <c r="O23" s="280"/>
-      <c r="P23" s="279"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="H24" s="263"/>
-      <c r="I24" s="262">
-        <v>3</v>
-      </c>
-      <c r="J24" s="262">
-        <v>2</v>
-      </c>
-      <c r="K24" s="262">
-        <v>5</v>
-      </c>
-      <c r="L24" s="262">
-        <v>-6</v>
-      </c>
-      <c r="M24" s="262" t="s">
-        <v>256</v>
-      </c>
-      <c r="N24" s="281"/>
-      <c r="O24" s="281"/>
-      <c r="P24" s="279"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="H25" s="263"/>
-      <c r="I25" s="261">
-        <v>4</v>
-      </c>
-      <c r="J25" s="261">
-        <v>1</v>
-      </c>
-      <c r="K25" s="261">
-        <v>2</v>
-      </c>
-      <c r="L25" s="261">
-        <v>5</v>
-      </c>
-      <c r="M25" s="261" t="s">
-        <v>256</v>
-      </c>
-      <c r="N25" s="280"/>
-      <c r="O25" s="280"/>
-      <c r="P25" s="279"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="247"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="262">
-        <v>5</v>
-      </c>
-      <c r="J26" s="262">
-        <v>1</v>
-      </c>
-      <c r="K26" s="262">
-        <v>5</v>
-      </c>
-      <c r="L26" s="262">
-        <v>2</v>
-      </c>
-      <c r="M26" s="262" t="s">
-        <v>256</v>
-      </c>
-      <c r="N26" s="281"/>
-      <c r="O26" s="281"/>
-      <c r="P26" s="279"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="248"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="261">
-        <v>6</v>
-      </c>
-      <c r="J27" s="261">
-        <v>5</v>
-      </c>
-      <c r="K27" s="261">
-        <v>2</v>
-      </c>
-      <c r="L27" s="261">
-        <v>1</v>
-      </c>
-      <c r="M27" s="261" t="s">
-        <v>256</v>
-      </c>
-      <c r="N27" s="280"/>
-      <c r="O27" s="280"/>
-      <c r="P27" s="279"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="264" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="262">
-        <v>1</v>
-      </c>
-      <c r="J28" s="262">
-        <v>1</v>
-      </c>
-      <c r="K28" s="262">
-        <v>1</v>
-      </c>
-      <c r="L28" s="262">
-        <v>1</v>
-      </c>
-      <c r="M28" s="262" t="s">
-        <v>246</v>
-      </c>
-      <c r="N28" s="281"/>
-      <c r="O28" s="281"/>
-      <c r="P28" s="279"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="248"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="251"/>
-      <c r="F29" s="251"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="264"/>
-      <c r="I29" s="262">
-        <v>2</v>
-      </c>
-      <c r="J29" s="262">
-        <v>2</v>
-      </c>
-      <c r="K29" s="262">
-        <v>2</v>
-      </c>
-      <c r="L29" s="262">
-        <v>2</v>
-      </c>
-      <c r="M29" s="262" t="s">
-        <v>246</v>
-      </c>
-      <c r="N29" s="281"/>
-      <c r="O29" s="281"/>
-      <c r="P29" s="279"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="248"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="246"/>
-      <c r="H30" s="260" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="261">
-        <v>1</v>
-      </c>
-      <c r="J30" s="261">
-        <v>0</v>
-      </c>
-      <c r="K30" s="261">
-        <v>0</v>
-      </c>
-      <c r="L30" s="261">
-        <v>0</v>
-      </c>
-      <c r="M30" s="261" t="s">
-        <v>256</v>
-      </c>
-      <c r="N30" s="282"/>
-      <c r="O30" s="282"/>
-      <c r="P30" s="279"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="246"/>
-      <c r="C31" s="246"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="246"/>
-      <c r="H31" s="260"/>
-      <c r="I31" s="261">
-        <v>2</v>
-      </c>
-      <c r="J31" s="261">
-        <v>3</v>
-      </c>
-      <c r="K31" s="261">
-        <v>2</v>
-      </c>
-      <c r="L31" s="261">
-        <v>5</v>
-      </c>
-      <c r="M31" s="261" t="s">
-        <v>256</v>
-      </c>
-      <c r="N31" s="280"/>
-      <c r="O31" s="280"/>
-      <c r="P31" s="279"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="234"/>
-      <c r="C32" s="234"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="260"/>
-      <c r="I32" s="261">
-        <v>3</v>
-      </c>
-      <c r="J32" s="261">
-        <v>3</v>
-      </c>
-      <c r="K32" s="261">
-        <v>5</v>
-      </c>
-      <c r="L32" s="261">
-        <v>2</v>
-      </c>
-      <c r="M32" s="261" t="s">
-        <v>256</v>
-      </c>
-      <c r="N32" s="280"/>
-      <c r="O32" s="280"/>
-      <c r="P32" s="279"/>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="234"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="260"/>
-      <c r="I33" s="261">
-        <v>4</v>
-      </c>
-      <c r="J33" s="261">
-        <v>5</v>
-      </c>
-      <c r="K33" s="261">
-        <v>2</v>
-      </c>
-      <c r="L33" s="261">
-        <v>3</v>
-      </c>
-      <c r="M33" s="261" t="s">
-        <v>256</v>
-      </c>
-      <c r="N33" s="280"/>
-      <c r="O33" s="280"/>
-      <c r="P33" s="279"/>
+      <c r="M33" s="202" t="s">
+        <v>254</v>
+      </c>
+      <c r="N33" s="216"/>
+      <c r="O33" s="216"/>
+      <c r="P33" s="215"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="234"/>
-      <c r="C34" s="254"/>
-      <c r="D34" s="255"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="255"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="256"/>
-      <c r="I34" s="256"/>
-      <c r="J34" s="256"/>
-      <c r="K34" s="256"/>
-      <c r="L34" s="256"/>
-      <c r="M34" s="256"/>
-      <c r="N34" s="256"/>
-      <c r="O34" s="256"/>
-      <c r="P34" s="256"/>
+      <c r="B34" s="270"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="198"/>
+      <c r="N34" s="198"/>
+      <c r="O34" s="198"/>
+      <c r="P34" s="198"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="234"/>
-      <c r="C35" s="254"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="255"/>
-      <c r="F35" s="255"/>
-      <c r="G35" s="249"/>
+      <c r="B35" s="270"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="195"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="234"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="255"/>
-      <c r="E36" s="255"/>
-      <c r="F36" s="255"/>
-      <c r="G36" s="249"/>
+      <c r="B36" s="270"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="195"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="234"/>
-      <c r="C37" s="254"/>
-      <c r="D37" s="254"/>
-      <c r="E37" s="254"/>
-      <c r="F37" s="254"/>
-      <c r="G37" s="249"/>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="229"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
+      <c r="B37" s="270"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="H17:H21"/>
@@ -8901,6 +8869,11 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8930,391 +8903,391 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:11">
-      <c r="H3" s="144"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="6:11">
-      <c r="H4" s="145"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="6:11">
-      <c r="F5" s="175"/>
-      <c r="H5" s="146"/>
+      <c r="F5" s="174"/>
+      <c r="H5" s="145"/>
       <c r="I5" s="110"/>
       <c r="J5" s="110"/>
       <c r="K5" s="110"/>
     </row>
     <row r="6" spans="6:11">
-      <c r="F6" s="145"/>
-      <c r="H6" s="146"/>
+      <c r="F6" s="144"/>
+      <c r="H6" s="145"/>
       <c r="I6" s="110"/>
       <c r="J6" s="110"/>
       <c r="K6" s="110"/>
     </row>
     <row r="7" spans="6:11">
-      <c r="F7" s="175"/>
-      <c r="H7" s="146"/>
+      <c r="F7" s="174"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="110"/>
       <c r="J7" s="110"/>
       <c r="K7" s="110"/>
     </row>
     <row r="8" spans="6:11">
-      <c r="F8" s="145"/>
-      <c r="H8" s="145"/>
+      <c r="F8" s="144"/>
+      <c r="H8" s="144"/>
     </row>
     <row r="9" spans="6:11">
-      <c r="F9" s="175"/>
-      <c r="H9" s="145"/>
+      <c r="F9" s="174"/>
+      <c r="H9" s="144"/>
     </row>
     <row r="10" spans="6:11">
-      <c r="F10" s="145"/>
+      <c r="F10" s="144"/>
     </row>
     <row r="11" spans="6:11">
-      <c r="F11" s="175"/>
-      <c r="H11" s="144"/>
+      <c r="F11" s="174"/>
+      <c r="H11" s="143"/>
     </row>
     <row r="12" spans="6:11">
-      <c r="F12" s="145"/>
-      <c r="H12" s="145"/>
+      <c r="F12" s="144"/>
+      <c r="H12" s="144"/>
     </row>
     <row r="13" spans="6:11">
-      <c r="F13" s="175"/>
-      <c r="H13" s="146"/>
+      <c r="F13" s="174"/>
+      <c r="H13" s="145"/>
       <c r="I13" s="110"/>
       <c r="J13" s="110"/>
     </row>
     <row r="14" spans="6:11">
-      <c r="H14" s="145"/>
+      <c r="H14" s="144"/>
     </row>
     <row r="15" spans="6:11">
-      <c r="H15" s="145"/>
+      <c r="H15" s="144"/>
     </row>
     <row r="16" spans="6:11">
-      <c r="H16" s="145"/>
+      <c r="H16" s="144"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="H17" s="145"/>
+      <c r="H17" s="144"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="296" t="s">
+      <c r="B20" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="296" t="s">
+      <c r="C20" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="296" t="s">
+      <c r="D20" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="296" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="296" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
+      <c r="E20" s="228" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="228" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="269" t="s">
+      <c r="B21" s="207" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="207" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="275" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="269" t="s">
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="275"/>
+      <c r="C23" s="207" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="255"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="255"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="270" t="s">
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="208" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="208" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="D22" s="271"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="255"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="270"/>
-      <c r="C23" s="269" t="s">
+      <c r="C25" s="208" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="269"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="255"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="271" t="s">
+      <c r="D25" s="208"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="208" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="271" t="s">
+      <c r="C26" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="271"/>
-      <c r="E24" s="271"/>
-      <c r="F24" s="271"/>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="255"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="271" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="271" t="s">
+      <c r="D26" s="208"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="273"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="274"/>
+      <c r="I27" s="274"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="273"/>
+      <c r="C28" s="273"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="273"/>
+      <c r="H28" s="274"/>
+      <c r="I28" s="274"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="276" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="276" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="276" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="276" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="276"/>
+      <c r="I29" s="276"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="276"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="229" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="271"/>
-      <c r="E25" s="271"/>
-      <c r="F25" s="271"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="271" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="271" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="271"/>
-      <c r="E26" s="271"/>
-      <c r="F26" s="271"/>
-      <c r="G26" s="255"/>
-      <c r="H26" s="255"/>
-      <c r="I26" s="255"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="250"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="265"/>
-      <c r="I27" s="265"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="250"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="255"/>
-      <c r="E28" s="255"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="265"/>
-      <c r="I28" s="265"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="294" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="294" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="294" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="294" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="294" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="294" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="294"/>
-      <c r="I29" s="294"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="294"/>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="294"/>
-      <c r="G30" s="297" t="s">
-        <v>264</v>
-      </c>
-      <c r="H30" s="297" t="s">
+      <c r="H30" s="229" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" s="229" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="277" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="209">
+        <v>1</v>
+      </c>
+      <c r="D31" s="209">
+        <v>0</v>
+      </c>
+      <c r="E31" s="209">
+        <v>0</v>
+      </c>
+      <c r="F31" s="209">
+        <v>0</v>
+      </c>
+      <c r="G31" s="209" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="209" t="s">
         <v>214</v>
       </c>
-      <c r="I30" s="297" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="272" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="273">
+      <c r="I31" s="209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="277"/>
+      <c r="C32" s="209">
+        <v>2</v>
+      </c>
+      <c r="D32" s="209">
         <v>1</v>
       </c>
-      <c r="D31" s="273">
+      <c r="E32" s="209">
+        <v>2</v>
+      </c>
+      <c r="F32" s="209">
+        <v>5</v>
+      </c>
+      <c r="G32" s="209" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="209" t="s">
+        <v>214</v>
+      </c>
+      <c r="I32" s="209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="277"/>
+      <c r="C33" s="209">
+        <v>3</v>
+      </c>
+      <c r="D33" s="209">
         <v>0</v>
       </c>
-      <c r="E31" s="273">
+      <c r="E33" s="209">
         <v>0</v>
       </c>
-      <c r="F31" s="273">
+      <c r="F33" s="209">
+        <v>90</v>
+      </c>
+      <c r="G33" s="209" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="209" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="277"/>
+      <c r="C34" s="209">
+        <v>4</v>
+      </c>
+      <c r="D34" s="210">
         <v>0</v>
       </c>
-      <c r="G31" s="273" t="s">
+      <c r="E34" s="210">
+        <v>3</v>
+      </c>
+      <c r="F34" s="210">
+        <v>-6</v>
+      </c>
+      <c r="G34" s="210" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="273" t="s">
-        <v>216</v>
-      </c>
-      <c r="I31" s="273" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="272"/>
-      <c r="C32" s="273">
+      <c r="H34" s="210">
         <v>2</v>
       </c>
-      <c r="D32" s="273">
+      <c r="I34" s="210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="277"/>
+      <c r="C35" s="209">
+        <v>5</v>
+      </c>
+      <c r="D35" s="209">
         <v>1</v>
       </c>
-      <c r="E32" s="273">
+      <c r="E35" s="209">
+        <v>5</v>
+      </c>
+      <c r="F35" s="209">
+        <v>6</v>
+      </c>
+      <c r="G35" s="209" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" s="209">
+        <v>-3</v>
+      </c>
+      <c r="I35" s="209">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="277"/>
+      <c r="C36" s="209">
+        <v>6</v>
+      </c>
+      <c r="D36" s="210">
+        <v>1</v>
+      </c>
+      <c r="E36" s="210">
+        <v>-4</v>
+      </c>
+      <c r="F36" s="210">
+        <v>4</v>
+      </c>
+      <c r="G36" s="210" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="209">
         <v>2</v>
       </c>
-      <c r="F32" s="273">
-        <v>5</v>
-      </c>
-      <c r="G32" s="273" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="273" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="273" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="272"/>
-      <c r="C33" s="273">
-        <v>3</v>
-      </c>
-      <c r="D33" s="273">
-        <v>0</v>
-      </c>
-      <c r="E33" s="273">
-        <v>0</v>
-      </c>
-      <c r="F33" s="273">
-        <v>90</v>
-      </c>
-      <c r="G33" s="273" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" s="273" t="s">
-        <v>216</v>
-      </c>
-      <c r="I33" s="273" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="272"/>
-      <c r="C34" s="273">
-        <v>4</v>
-      </c>
-      <c r="D34" s="274">
-        <v>0</v>
-      </c>
-      <c r="E34" s="274">
-        <v>3</v>
-      </c>
-      <c r="F34" s="274">
-        <v>-6</v>
-      </c>
-      <c r="G34" s="274" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="274">
-        <v>2</v>
-      </c>
-      <c r="I34" s="274" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="272"/>
-      <c r="C35" s="273">
-        <v>5</v>
-      </c>
-      <c r="D35" s="273">
-        <v>1</v>
-      </c>
-      <c r="E35" s="273">
-        <v>5</v>
-      </c>
-      <c r="F35" s="273">
-        <v>6</v>
-      </c>
-      <c r="G35" s="273" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="273">
-        <v>-3</v>
-      </c>
-      <c r="I35" s="273">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="272"/>
-      <c r="C36" s="273">
-        <v>6</v>
-      </c>
-      <c r="D36" s="274">
-        <v>1</v>
-      </c>
-      <c r="E36" s="274">
-        <v>-4</v>
-      </c>
-      <c r="F36" s="274">
-        <v>4</v>
-      </c>
-      <c r="G36" s="274" t="s">
-        <v>158</v>
-      </c>
-      <c r="H36" s="273">
-        <v>2</v>
-      </c>
-      <c r="I36" s="274">
+      <c r="I36" s="210">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9344,414 +9317,414 @@
   <sheetData>
     <row r="37" spans="2:6" ht="15" thickBot="1"/>
     <row r="38" spans="2:6" ht="15" thickBot="1">
-      <c r="B38" s="158" t="s">
+      <c r="B38" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="159" t="s">
+      <c r="C38" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="159" t="s">
+      <c r="D38" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="159" t="s">
+      <c r="E38" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="160" t="s">
+      <c r="F38" s="159" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="163" t="s">
+      <c r="B39" s="168" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="162" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="162">
+        <v>0</v>
+      </c>
+      <c r="F39" s="163">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1">
+      <c r="B40" s="169"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="168" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="162" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="165" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="E41" s="165" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" thickBot="1">
+      <c r="B42" s="150"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="163">
+      <c r="E42" s="167">
         <v>0</v>
       </c>
-      <c r="F39" s="164">
+      <c r="F42" s="164"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="149" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="160" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="160">
+        <v>0</v>
+      </c>
+      <c r="F43" s="161">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1">
-      <c r="B40" s="170"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="165" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="153"/>
+      <c r="C44" s="127" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="169" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="163" t="s">
-        <v>209</v>
-      </c>
-      <c r="D41" s="166" t="s">
+      <c r="D44" s="127"/>
+      <c r="E44" s="127">
+        <v>50</v>
+      </c>
+      <c r="F44" s="137"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="153"/>
+      <c r="C45" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127">
+        <v>51</v>
+      </c>
+      <c r="F45" s="137"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="153"/>
+      <c r="C46" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127">
+        <v>100</v>
+      </c>
+      <c r="F46" s="137"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="153"/>
+      <c r="C47" s="127" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127">
+        <v>101</v>
+      </c>
+      <c r="F47" s="137"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="153"/>
+      <c r="C48" s="127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127">
         <v>200</v>
       </c>
-      <c r="E41" s="166" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" s="167" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1">
-      <c r="B42" s="151"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="168">
-        <v>0</v>
-      </c>
-      <c r="F42" s="165"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="150" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="161" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="161">
-        <v>0</v>
-      </c>
-      <c r="F43" s="162">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="154"/>
-      <c r="C44" s="128" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128">
-        <v>50</v>
-      </c>
-      <c r="F44" s="138"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="154"/>
-      <c r="C45" s="128" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128">
-        <v>51</v>
-      </c>
-      <c r="F45" s="138"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="154"/>
-      <c r="C46" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128">
-        <v>100</v>
-      </c>
-      <c r="F46" s="138"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="154"/>
-      <c r="C47" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128">
-        <v>101</v>
-      </c>
-      <c r="F47" s="138"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="154"/>
-      <c r="C48" s="128" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128">
-        <v>200</v>
-      </c>
-      <c r="F48" s="138"/>
+      <c r="F48" s="137"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="B49" s="154"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128">
+      <c r="B49" s="153"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127">
         <v>201</v>
       </c>
-      <c r="F49" s="138"/>
+      <c r="F49" s="137"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="B50" s="154"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128">
+      <c r="B50" s="153"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127">
         <v>300</v>
       </c>
-      <c r="F50" s="138"/>
+      <c r="F50" s="137"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="B51" s="154"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128">
+      <c r="B51" s="153"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127">
         <v>301</v>
       </c>
-      <c r="F51" s="138"/>
+      <c r="F51" s="137"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="B52" s="154"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128">
+      <c r="B52" s="153"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127">
         <v>400</v>
       </c>
-      <c r="F52" s="138"/>
+      <c r="F52" s="137"/>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1">
-      <c r="B53" s="155"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="139">
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="138">
         <v>401</v>
       </c>
-      <c r="F53" s="157"/>
+      <c r="F53" s="156"/>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1"/>
     <row r="55" spans="1:7">
-      <c r="A55" s="210" t="s">
+      <c r="A55" s="259" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="220" t="s">
+      <c r="B55" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="219" t="s">
+      <c r="C55" s="280" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="219" t="s">
+      <c r="D55" s="280" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="219"/>
-      <c r="F55" s="179"/>
-      <c r="G55" s="171" t="s">
+      <c r="E55" s="280"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="170" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="210"/>
-      <c r="B56" s="221"/>
-      <c r="C56" s="222"/>
-      <c r="D56" s="148" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="148" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56" s="180" t="s">
-        <v>211</v>
-      </c>
-      <c r="G56" s="172"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="282"/>
+      <c r="C56" s="283"/>
+      <c r="D56" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="179" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="171"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="129">
+      <c r="A57" s="128">
         <v>1</v>
       </c>
-      <c r="B57" s="217" t="s">
+      <c r="B57" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="128">
+      <c r="C57" s="127">
         <v>1</v>
       </c>
-      <c r="D57" s="128">
+      <c r="D57" s="127">
         <v>20</v>
       </c>
-      <c r="E57" s="128">
+      <c r="E57" s="127">
         <v>60</v>
       </c>
-      <c r="F57" s="128">
+      <c r="F57" s="127">
         <v>40</v>
       </c>
-      <c r="G57" s="174">
+      <c r="G57" s="173">
         <v>65296</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="129">
+      <c r="A58" s="128">
         <v>2</v>
       </c>
-      <c r="B58" s="217"/>
-      <c r="C58" s="128">
+      <c r="B58" s="278"/>
+      <c r="C58" s="127">
         <v>2</v>
       </c>
-      <c r="D58" s="128">
+      <c r="D58" s="127">
         <v>20</v>
       </c>
-      <c r="E58" s="128">
+      <c r="E58" s="127">
         <v>100</v>
       </c>
-      <c r="F58" s="128">
+      <c r="F58" s="127">
         <f>E58-D58</f>
         <v>80</v>
       </c>
-      <c r="G58" s="174">
+      <c r="G58" s="173">
         <v>132209</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="129">
+      <c r="A59" s="128">
         <v>3</v>
       </c>
-      <c r="B59" s="217"/>
-      <c r="C59" s="128">
+      <c r="B59" s="278"/>
+      <c r="C59" s="127">
         <v>3</v>
       </c>
-      <c r="D59" s="128">
+      <c r="D59" s="127">
         <v>20</v>
       </c>
-      <c r="E59" s="128">
+      <c r="E59" s="127">
         <v>150</v>
       </c>
-      <c r="F59" s="128">
+      <c r="F59" s="127">
         <v>130</v>
       </c>
-      <c r="G59" s="174">
+      <c r="G59" s="173">
         <v>224873</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="129">
+      <c r="A60" s="128">
         <v>4</v>
       </c>
-      <c r="B60" s="217"/>
-      <c r="C60" s="128">
+      <c r="B60" s="278"/>
+      <c r="C60" s="127">
         <v>4</v>
       </c>
-      <c r="D60" s="128">
+      <c r="D60" s="127">
         <v>20</v>
       </c>
-      <c r="E60" s="128">
+      <c r="E60" s="127">
         <v>250</v>
       </c>
-      <c r="F60" s="128">
+      <c r="F60" s="127">
         <v>230</v>
       </c>
-      <c r="G60" s="174">
+      <c r="G60" s="173">
         <v>436381</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="129">
+      <c r="A61" s="128">
         <v>5</v>
       </c>
-      <c r="B61" s="217"/>
-      <c r="C61" s="128">
+      <c r="B61" s="278"/>
+      <c r="C61" s="127">
         <v>5</v>
       </c>
-      <c r="D61" s="128">
+      <c r="D61" s="127">
         <v>20</v>
       </c>
-      <c r="E61" s="128">
+      <c r="E61" s="127">
         <v>350</v>
       </c>
-      <c r="F61" s="128">
+      <c r="F61" s="127">
         <v>330</v>
       </c>
-      <c r="G61" s="174">
+      <c r="G61" s="173">
         <v>691614</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="129">
+      <c r="A62" s="128">
         <v>6</v>
       </c>
-      <c r="B62" s="217"/>
-      <c r="C62" s="128">
+      <c r="B62" s="278"/>
+      <c r="C62" s="127">
         <v>6</v>
       </c>
-      <c r="D62" s="128">
+      <c r="D62" s="127">
         <v>20</v>
       </c>
-      <c r="E62" s="128">
+      <c r="E62" s="127">
         <v>450</v>
       </c>
-      <c r="F62" s="128">
+      <c r="F62" s="127">
         <v>430</v>
       </c>
-      <c r="G62" s="174">
+      <c r="G62" s="173">
         <v>969716</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="129">
+      <c r="A63" s="128">
         <v>7</v>
       </c>
-      <c r="B63" s="217" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="128">
+      <c r="B63" s="278" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="127">
         <v>1</v>
       </c>
       <c r="D63" s="26">
         <v>-1</v>
       </c>
-      <c r="E63" s="128">
+      <c r="E63" s="127">
         <v>60</v>
       </c>
       <c r="F63" s="26">
         <v>59</v>
       </c>
-      <c r="G63" s="138">
+      <c r="G63" s="137">
         <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="129">
+      <c r="A64" s="128">
         <v>8</v>
       </c>
-      <c r="B64" s="217"/>
-      <c r="C64" s="128">
+      <c r="B64" s="278"/>
+      <c r="C64" s="127">
         <v>2</v>
       </c>
       <c r="D64" s="26">
         <v>70</v>
       </c>
-      <c r="E64" s="128">
+      <c r="E64" s="127">
         <v>60</v>
       </c>
       <c r="F64" s="26">
         <v>-10</v>
       </c>
-      <c r="G64" s="138">
+      <c r="G64" s="137">
         <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="129">
+      <c r="A65" s="128">
         <v>9</v>
       </c>
-      <c r="B65" s="217"/>
-      <c r="C65" s="128">
+      <c r="B65" s="278"/>
+      <c r="C65" s="127">
         <v>3</v>
       </c>
-      <c r="D65" s="128">
+      <c r="D65" s="127">
         <v>20</v>
       </c>
       <c r="E65" s="26">
@@ -9760,295 +9733,295 @@
       <c r="F65" s="26">
         <v>-21</v>
       </c>
-      <c r="G65" s="138">
+      <c r="G65" s="137">
         <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="129">
+      <c r="A66" s="128">
         <v>10</v>
       </c>
-      <c r="B66" s="217" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="129">
+      <c r="B66" s="278" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="128">
         <v>1</v>
       </c>
-      <c r="D66" s="129">
+      <c r="D66" s="128">
         <v>0</v>
       </c>
-      <c r="E66" s="129">
+      <c r="E66" s="128">
         <v>0</v>
       </c>
-      <c r="F66" s="129">
+      <c r="F66" s="128">
         <f>E66-D66</f>
         <v>0</v>
       </c>
-      <c r="G66" s="153">
+      <c r="G66" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="129">
+      <c r="A67" s="128">
         <v>11</v>
       </c>
-      <c r="B67" s="217"/>
-      <c r="C67" s="129">
+      <c r="B67" s="278"/>
+      <c r="C67" s="128">
         <v>2</v>
       </c>
-      <c r="D67" s="129">
+      <c r="D67" s="128">
         <v>20</v>
       </c>
-      <c r="E67" s="129">
+      <c r="E67" s="128">
         <v>70</v>
       </c>
-      <c r="F67" s="129">
+      <c r="F67" s="128">
         <f t="shared" ref="F67:F76" si="0">E67-D67</f>
         <v>50</v>
       </c>
-      <c r="G67" s="174">
+      <c r="G67" s="173">
         <v>81620</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="129">
+      <c r="A68" s="128">
         <v>12</v>
       </c>
-      <c r="B68" s="217"/>
-      <c r="C68" s="129">
+      <c r="B68" s="278"/>
+      <c r="C68" s="128">
         <v>3</v>
       </c>
-      <c r="D68" s="129">
+      <c r="D68" s="128">
         <v>20</v>
       </c>
-      <c r="E68" s="129">
+      <c r="E68" s="128">
         <v>71</v>
       </c>
-      <c r="F68" s="129">
+      <c r="F68" s="128">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="G68" s="174">
+      <c r="G68" s="173">
         <v>83306</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="129">
+      <c r="A69" s="128">
         <v>13</v>
       </c>
-      <c r="B69" s="217"/>
-      <c r="C69" s="129">
+      <c r="B69" s="278"/>
+      <c r="C69" s="128">
         <v>4</v>
       </c>
-      <c r="D69" s="129">
+      <c r="D69" s="128">
         <v>20</v>
       </c>
-      <c r="E69" s="129">
+      <c r="E69" s="128">
         <v>120</v>
       </c>
-      <c r="F69" s="129">
+      <c r="F69" s="128">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G69" s="174">
+      <c r="G69" s="173">
         <v>165935</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="129">
+      <c r="A70" s="128">
         <v>14</v>
       </c>
-      <c r="B70" s="217"/>
-      <c r="C70" s="129">
+      <c r="B70" s="278"/>
+      <c r="C70" s="128">
         <v>5</v>
       </c>
-      <c r="D70" s="129">
+      <c r="D70" s="128">
         <v>20</v>
       </c>
-      <c r="E70" s="129">
+      <c r="E70" s="128">
         <v>121</v>
       </c>
-      <c r="F70" s="129">
+      <c r="F70" s="128">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="G70" s="174">
+      <c r="G70" s="173">
         <v>167899</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="129">
+      <c r="A71" s="128">
         <v>15</v>
       </c>
-      <c r="B71" s="217"/>
-      <c r="C71" s="129">
+      <c r="B71" s="278"/>
+      <c r="C71" s="128">
         <v>6</v>
       </c>
-      <c r="D71" s="129">
+      <c r="D71" s="128">
         <v>20</v>
       </c>
-      <c r="E71" s="129">
+      <c r="E71" s="128">
         <v>220</v>
       </c>
-      <c r="F71" s="129">
+      <c r="F71" s="128">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G71" s="174">
+      <c r="G71" s="173">
         <v>362395</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="129">
+      <c r="A72" s="128">
         <v>16</v>
       </c>
-      <c r="B72" s="217"/>
-      <c r="C72" s="129">
+      <c r="B72" s="278"/>
+      <c r="C72" s="128">
         <v>7</v>
       </c>
-      <c r="D72" s="129">
+      <c r="D72" s="128">
         <v>20</v>
       </c>
-      <c r="E72" s="129">
+      <c r="E72" s="128">
         <v>221</v>
       </c>
-      <c r="F72" s="129">
+      <c r="F72" s="128">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="G72" s="174">
+      <c r="G72" s="173">
         <v>364861</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="129">
+      <c r="A73" s="128">
         <v>17</v>
       </c>
-      <c r="B73" s="217"/>
-      <c r="C73" s="129">
+      <c r="B73" s="278"/>
+      <c r="C73" s="128">
         <v>8</v>
       </c>
-      <c r="D73" s="129">
+      <c r="D73" s="128">
         <v>20</v>
       </c>
-      <c r="E73" s="129">
+      <c r="E73" s="128">
         <v>320</v>
       </c>
-      <c r="F73" s="129">
+      <c r="F73" s="128">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G73" s="174">
+      <c r="G73" s="173">
         <v>609015</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="129">
+      <c r="A74" s="128">
         <v>18</v>
       </c>
-      <c r="B74" s="217"/>
-      <c r="C74" s="129">
+      <c r="B74" s="278"/>
+      <c r="C74" s="128">
         <v>9</v>
       </c>
-      <c r="D74" s="129">
+      <c r="D74" s="128">
         <v>20</v>
       </c>
-      <c r="E74" s="129">
+      <c r="E74" s="128">
         <v>321</v>
       </c>
-      <c r="F74" s="129">
+      <c r="F74" s="128">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="G74" s="174">
+      <c r="G74" s="173">
         <v>611768</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="129">
+      <c r="A75" s="128">
         <v>19</v>
       </c>
-      <c r="B75" s="217"/>
-      <c r="C75" s="129">
+      <c r="B75" s="278"/>
+      <c r="C75" s="128">
         <v>10</v>
       </c>
-      <c r="D75" s="129">
+      <c r="D75" s="128">
         <v>20</v>
       </c>
-      <c r="E75" s="129">
+      <c r="E75" s="128">
         <v>420</v>
       </c>
-      <c r="F75" s="129">
+      <c r="F75" s="128">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G75" s="174">
+      <c r="G75" s="173">
         <v>884345</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="129">
+      <c r="A76" s="128">
         <v>20</v>
       </c>
-      <c r="B76" s="217"/>
-      <c r="C76" s="129">
+      <c r="B76" s="278"/>
+      <c r="C76" s="128">
         <v>11</v>
       </c>
-      <c r="D76" s="129">
+      <c r="D76" s="128">
         <v>20</v>
       </c>
-      <c r="E76" s="129">
+      <c r="E76" s="128">
         <v>421</v>
       </c>
-      <c r="F76" s="129">
+      <c r="F76" s="128">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-      <c r="G76" s="174">
+      <c r="G76" s="173">
         <v>887191</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="129">
+      <c r="A77" s="128">
         <v>21</v>
       </c>
-      <c r="B77" s="217" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="128">
+      <c r="B77" s="278" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="127">
         <v>1</v>
       </c>
       <c r="D77" s="26">
         <v>-1</v>
       </c>
-      <c r="E77" s="128">
+      <c r="E77" s="127">
         <v>60</v>
       </c>
       <c r="F77" s="26">
         <v>59</v>
       </c>
-      <c r="G77" s="138">
+      <c r="G77" s="137">
         <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1">
-      <c r="A78" s="129">
+      <c r="A78" s="128">
         <v>22</v>
       </c>
-      <c r="B78" s="218"/>
-      <c r="C78" s="139">
+      <c r="B78" s="279"/>
+      <c r="C78" s="138">
         <v>2</v>
       </c>
-      <c r="D78" s="173">
+      <c r="D78" s="172">
         <v>61</v>
       </c>
-      <c r="E78" s="139">
+      <c r="E78" s="138">
         <v>60</v>
       </c>
-      <c r="F78" s="173">
+      <c r="F78" s="172">
         <v>-1</v>
       </c>
-      <c r="G78" s="140">
+      <c r="G78" s="139">
         <v>-1</v>
       </c>
     </row>
@@ -10088,213 +10061,213 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:6">
-      <c r="F4" s="145"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="6:6">
-      <c r="F5" s="145"/>
+      <c r="F5" s="144"/>
     </row>
     <row r="6" spans="6:6">
-      <c r="F6" s="145"/>
+      <c r="F6" s="144"/>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="145"/>
+      <c r="F7" s="144"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="246"/>
-      <c r="B23" s="291" t="s">
+      <c r="A23" s="192"/>
+      <c r="B23" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="291" t="s">
+      <c r="C23" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="291" t="s">
+      <c r="D23" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="291" t="s">
+      <c r="E23" s="225" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="225" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="196"/>
+      <c r="B24" s="285" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="291" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="255"/>
-      <c r="B24" s="238" t="s">
+      <c r="C24" s="184" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184">
+        <v>1</v>
+      </c>
+      <c r="F24" s="184"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="204"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="185" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185">
+        <v>0</v>
+      </c>
+      <c r="F25" s="185"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="204"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="198"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="192"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="198"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="192"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="198"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="192"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="192"/>
+      <c r="B30" s="276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="213" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="284" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="284"/>
+      <c r="G30" s="213" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="192"/>
+      <c r="B31" s="276"/>
+      <c r="C31" s="276"/>
+      <c r="D31" s="213" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="235" t="s">
-        <v>265</v>
-      </c>
-      <c r="D24" s="235"/>
-      <c r="E24" s="235">
+      <c r="F31" s="213" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="213" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="277" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="203">
         <v>1</v>
       </c>
-      <c r="F24" s="235"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="266"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236">
+      <c r="D32" s="203">
+        <v>9</v>
+      </c>
+      <c r="E32" s="203">
+        <v>10</v>
+      </c>
+      <c r="F32" s="203">
+        <v>4</v>
+      </c>
+      <c r="G32" s="203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="277"/>
+      <c r="C33" s="202">
+        <v>2</v>
+      </c>
+      <c r="D33" s="202">
+        <v>-20</v>
+      </c>
+      <c r="E33" s="202">
         <v>0</v>
       </c>
-      <c r="F25" s="236"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="266"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="246"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="246"/>
-      <c r="B28" s="275"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="246"/>
-      <c r="B29" s="256"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="246"/>
-      <c r="B30" s="294" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="294" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="277" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="295" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="295"/>
-      <c r="G30" s="277" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="246"/>
-      <c r="B31" s="294"/>
-      <c r="C31" s="294"/>
-      <c r="D31" s="277" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="277" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="277" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="277" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="272" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="262">
+      <c r="F33" s="202">
         <v>1</v>
       </c>
-      <c r="D32" s="262">
-        <v>9</v>
-      </c>
-      <c r="E32" s="262">
-        <v>10</v>
-      </c>
-      <c r="F32" s="262">
-        <v>4</v>
-      </c>
-      <c r="G32" s="262">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="272"/>
-      <c r="C33" s="261">
+      <c r="G33" s="202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="277" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="203">
+        <v>1</v>
+      </c>
+      <c r="D34" s="203">
+        <v>1</v>
+      </c>
+      <c r="E34" s="203">
+        <v>3</v>
+      </c>
+      <c r="F34" s="203">
         <v>2</v>
       </c>
-      <c r="D33" s="261">
-        <v>-20</v>
-      </c>
-      <c r="E33" s="261">
+      <c r="G34" s="203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="277"/>
+      <c r="C35" s="202">
+        <v>2</v>
+      </c>
+      <c r="D35" s="202">
         <v>0</v>
       </c>
-      <c r="F33" s="261">
+      <c r="E35" s="202">
         <v>1</v>
       </c>
-      <c r="G33" s="261">
+      <c r="F35" s="202">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="272" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="262">
-        <v>1</v>
-      </c>
-      <c r="D34" s="262">
-        <v>1</v>
-      </c>
-      <c r="E34" s="262">
-        <v>3</v>
-      </c>
-      <c r="F34" s="262">
-        <v>2</v>
-      </c>
-      <c r="G34" s="262">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="272"/>
-      <c r="C35" s="261">
-        <v>2</v>
-      </c>
-      <c r="D35" s="261">
-        <v>0</v>
-      </c>
-      <c r="E35" s="261">
-        <v>1</v>
-      </c>
-      <c r="F35" s="261">
-        <v>1</v>
-      </c>
-      <c r="G35" s="261">
+      <c r="G35" s="202">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
